--- a/resumo_DSD_2324_12junho2023__hf_hd.xlsx
+++ b/resumo_DSD_2324_12junho2023__hf_hd.xlsx
@@ -14,8 +14,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'horas_UCs'!$A$1:$M$272</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'horas_docentes'!$A$1:$D$154</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'horas_UCs_docentes'!$A$1:$H$666</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'horas_docentes'!$A$1:$D$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'horas_UCs_docentes'!$A$1:$H$667</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'info_UCs'!$A$1:$AJ$313</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7350,10 +7350,10 @@
         <v>308</v>
       </c>
       <c r="L117" t="n">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="M117" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -16513,7 +16513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19304,8 +19304,44 @@
         <v>6.45</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Duarte Neiva</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Contrato-Programa FCT DL57</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>28</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Margarida Rocheta</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Técnico Superior</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v/>
+      </c>
+      <c r="D156" t="n">
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D154"/>
+  <autoFilter ref="A1:D156"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -19316,7 +19352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H666"/>
+  <dimension ref="A1:H667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30684,12 +30720,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>EALIM</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -30697,24 +30733,24 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Maria Luísa Louro Martins</t>
+          <t>David Paulo Fangueiro</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Maria Luíza Louro Martins</t>
+          <t>Duarte Neiva</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Química e Bioquímica dos Alimentos</t>
+          <t>Química</t>
         </is>
       </c>
       <c r="G316" t="n">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="H316" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="317">
@@ -30738,7 +30774,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Maria Filipa Vinagre Marques da Silva Oliveira</t>
+          <t>Maria Luíza Louro Martins</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -30750,7 +30786,7 @@
         <v>2580</v>
       </c>
       <c r="H317" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318">
@@ -30774,7 +30810,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Leonor de Castro Esteves Guerra Guimarães</t>
+          <t>Maria Filipa Vinagre Marques da Silva Oliveira</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -30786,18 +30822,18 @@
         <v>2580</v>
       </c>
       <c r="H318" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>EALIM</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -30805,24 +30841,24 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Paula Maria da Luz Figueiredo de Alvarenga</t>
+          <t>Maria Luísa Louro Martins</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Paula Maria da Luz Figueiredo de Alvarenga</t>
+          <t>Leonor de Castro Esteves Guerra Guimarães</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Química e Física para Arquitectura Paisagista</t>
+          <t>Química e Bioquímica dos Alimentos</t>
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="H319" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320">
@@ -30846,7 +30882,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Maria Teresa Gomes Afonso do Paço</t>
+          <t>Paula Maria da Luz Figueiredo de Alvarenga</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -30882,30 +30918,30 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Paula Maria da Luz Figueiredo de Alvarenga</t>
+          <t>Maria Teresa Gomes Afonso do Paço</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Química Geral</t>
+          <t>Química e Física para Arquitectura Paisagista</t>
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="H321" t="n">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>EALIM</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -30913,24 +30949,24 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Maria Luísa Louro Martins</t>
+          <t>Paula Maria da Luz Figueiredo de Alvarenga</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Maria Luíza Louro Martins</t>
+          <t>Paula Maria da Luz Figueiredo de Alvarenga</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Química Orgânica e Bioquímica</t>
+          <t>Química Geral</t>
         </is>
       </c>
       <c r="G322" t="n">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="H322" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="323">
@@ -30954,7 +30990,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Miguel Pedro de Freitas Barbosa Mourato</t>
+          <t>Maria Luíza Louro Martins</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -30966,7 +31002,7 @@
         <v>2583</v>
       </c>
       <c r="H323" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="324">
@@ -30990,7 +31026,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Helena Manuela Gil Azinheira</t>
+          <t>Miguel Pedro de Freitas Barbosa Mourato</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -31002,7 +31038,7 @@
         <v>2583</v>
       </c>
       <c r="H324" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="325">
@@ -31026,7 +31062,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>José Carlos de Carvalho Rodrigues</t>
+          <t>Helena Manuela Gil Azinheira</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -31062,7 +31098,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Ana Maria Martins Alves</t>
+          <t>José Carlos de Carvalho Rodrigues</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -31080,12 +31116,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EALIM</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -31093,21 +31129,21 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Pedro Miguel Ramos Arsénio</t>
+          <t>Maria Luísa Louro Martins</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Pedro Miguel Ramos Arsénio</t>
+          <t>Ana Maria Martins Alves</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recuperação da Paisagem </t>
+          <t>Química Orgânica e Bioquímica</t>
         </is>
       </c>
       <c r="G327" t="n">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="H327" t="n">
         <v>42</v>
@@ -31134,7 +31170,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>José Carlos Augusta da Costa</t>
+          <t>Pedro Miguel Ramos Arsénio</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -31146,13 +31182,13 @@
         <v>2584</v>
       </c>
       <c r="H328" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>FLO</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -31165,24 +31201,24 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Manuela Rodrigues Branco Simões</t>
+          <t>Pedro Miguel Ramos Arsénio</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Pedro Segurado</t>
+          <t>José Carlos Augusta da Costa</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Recursos Faunísticos</t>
+          <t xml:space="preserve">Recuperação da Paisagem </t>
         </is>
       </c>
       <c r="G329" t="n">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="H329" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330">
@@ -31206,7 +31242,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Susana Maria de Abreu Dias</t>
+          <t>Pedro Segurado</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -31218,7 +31254,7 @@
         <v>2585</v>
       </c>
       <c r="H330" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331">
@@ -31242,7 +31278,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Manuela Rodrigues Branco Simões</t>
+          <t>Susana Maria de Abreu Dias</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -31254,18 +31290,18 @@
         <v>2585</v>
       </c>
       <c r="H331" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>EALIM</t>
+          <t>FLO</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -31273,35 +31309,35 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
+          <t>Manuela Rodrigues Branco Simões</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
+          <t>Manuela Rodrigues Branco Simões</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Reologia e Estrutura dos Alimentos</t>
+          <t>Recursos Faunísticos</t>
         </is>
       </c>
       <c r="G332" t="n">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="H332" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>FLO</t>
+          <t>EALIM</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -31309,24 +31345,24 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Ana Paula Soares Marques de Carvalho</t>
+          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Ana Paula Soares Marques de Carvalho</t>
+          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Silvicultura I</t>
+          <t>Reologia e Estrutura dos Alimentos</t>
         </is>
       </c>
       <c r="G333" t="n">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="H333" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="334">
@@ -31350,7 +31386,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Henrique Manuel Filipe Ribeiro</t>
+          <t>Ana Paula Soares Marques de Carvalho</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -31362,7 +31398,7 @@
         <v>2588</v>
       </c>
       <c r="H334" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="335">
@@ -31386,7 +31422,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Filipe Miguel de Carvalho Costa e Silva</t>
+          <t>Henrique Manuel Filipe Ribeiro</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -31398,7 +31434,7 @@
         <v>2588</v>
       </c>
       <c r="H335" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="336">
@@ -31422,19 +31458,19 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Ana Paula Soares Marques de Carvalho</t>
+          <t>Filipe Miguel de Carvalho Costa e Silva</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t xml:space="preserve">Silvicultura II </t>
+          <t>Silvicultura I</t>
         </is>
       </c>
       <c r="G336" t="n">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="H336" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337">
@@ -31453,24 +31489,24 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Maria Margarida Branco de Brito Tavares Tomé/Joana Amaral Paulo</t>
+          <t>Ana Paula Soares Marques de Carvalho</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Maria Margarida Branco de Brito Tavares Tomé</t>
+          <t>Ana Paula Soares Marques de Carvalho</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sistemas Agroflorestais </t>
+          <t xml:space="preserve">Silvicultura II </t>
         </is>
       </c>
       <c r="G337" t="n">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="338">
@@ -31494,7 +31530,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Joana Amaral Paulo</t>
+          <t>Maria Margarida Branco de Brito Tavares Tomé</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -31506,13 +31542,13 @@
         <v>2590</v>
       </c>
       <c r="H338" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>FLO</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -31525,24 +31561,24 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
+          <t>Maria Margarida Branco de Brito Tavares Tomé/Joana Amaral Paulo</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
+          <t>Joana Amaral Paulo</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Sistemas de Informação Geográfica</t>
+          <t xml:space="preserve">Sistemas Agroflorestais </t>
         </is>
       </c>
       <c r="G339" t="n">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="H339" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340">
@@ -31566,7 +31602,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Patricia Maria Rodriguez Gonzalez</t>
+          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -31578,7 +31614,7 @@
         <v>2591</v>
       </c>
       <c r="H340" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="341">
@@ -31602,7 +31638,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Maria do Carmo Sequeira Nunes</t>
+          <t>Patricia Maria Rodriguez Gonzalez</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -31614,7 +31650,7 @@
         <v>2591</v>
       </c>
       <c r="H341" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="342">
@@ -31638,7 +31674,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Ana Isabel Rosa Cabral</t>
+          <t>Maria do Carmo Sequeira Nunes</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -31674,7 +31710,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Vanda Cristina de Carvalho Acácio</t>
+          <t>Ana Isabel Rosa Cabral</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -31692,12 +31728,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ECON</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -31705,24 +31741,24 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Maria João Prudêncio Rafael Canadas</t>
+          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Francisco Ramos Lopes Gomes da Silva</t>
+          <t>Vanda Cristina de Carvalho Acácio</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Sociologia e Política Agrícola e Alimentar</t>
+          <t>Sistemas de Informação Geográfica</t>
         </is>
       </c>
       <c r="G344" t="n">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="H344" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="345">
@@ -31746,7 +31782,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Ana Maria Contente de Vinha Novais</t>
+          <t>Francisco Ramos Lopes Gomes da Silva</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -31758,7 +31794,7 @@
         <v>2592</v>
       </c>
       <c r="H345" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="346">
@@ -31782,7 +31818,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>José Manuel Osório de Barros de Lima e Santos</t>
+          <t>Ana Maria Contente de Vinha Novais</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -31794,7 +31830,7 @@
         <v>2592</v>
       </c>
       <c r="H346" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="347">
@@ -31813,24 +31849,24 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Ana Maria Contente de Vinhas Novais</t>
+          <t>Maria João Prudêncio Rafael Canadas</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Ana Maria Contente de Vinha Novais</t>
+          <t>José Manuel Osório de Barros de Lima e Santos</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Sociologia e Política Ambiental e Territorial</t>
+          <t>Sociologia e Política Agrícola e Alimentar</t>
         </is>
       </c>
       <c r="G347" t="n">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="H347" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348">
@@ -31854,7 +31890,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>José Manuel Osório de Barros de Lima e Santos</t>
+          <t>Ana Maria Contente de Vinha Novais</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -31866,18 +31902,18 @@
         <v>2593</v>
       </c>
       <c r="H348" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>ECON</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -31885,24 +31921,24 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Nuno Renato da Silva Cortez</t>
+          <t>Ana Maria Contente de Vinhas Novais</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Nuno Renato da Silva Cortez</t>
+          <t>José Manuel Osório de Barros de Lima e Santos</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Solos</t>
+          <t>Sociologia e Política Ambiental e Territorial</t>
         </is>
       </c>
       <c r="G349" t="n">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="H349" t="n">
-        <v>84.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350">
@@ -31926,7 +31962,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Erika da Silva dos Santos</t>
+          <t>Nuno Renato da Silva Cortez</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -31938,7 +31974,7 @@
         <v>2594</v>
       </c>
       <c r="H350" t="n">
-        <v>162.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="351">
@@ -31962,7 +31998,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Maria Madalena Calado Santos Sobral da Fonseca</t>
+          <t>Erika da Silva dos Santos</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -31974,13 +32010,13 @@
         <v>2594</v>
       </c>
       <c r="H351" t="n">
-        <v>19</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -31993,30 +32029,30 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Maria Cabral Matos Silva Aires Pereira</t>
+          <t>Nuno Renato da Silva Cortez</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Maria Cabral Matos Silva Aires Pereira</t>
+          <t>Maria Madalena Calado Santos Sobral da Fonseca</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Técnicas de Construção Aplicadas ao Projecto de Arquitectura Paisagista</t>
+          <t>Solos</t>
         </is>
       </c>
       <c r="G352" t="n">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="H352" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BIO</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -32029,24 +32065,24 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Ricardo Ferreira / Manuela Gomes da Silva</t>
+          <t>Maria Cabral Matos Silva Aires Pereira</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Ricardo Manuel de Seixas Boavida Ferreira</t>
+          <t>Maria Cabral Matos Silva Aires Pereira</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Técnicas Laboratoriais em Biologia</t>
+          <t>Técnicas de Construção Aplicadas ao Projecto de Arquitectura Paisagista</t>
         </is>
       </c>
       <c r="G353" t="n">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="354">
@@ -32070,7 +32106,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Ana Carina dos Santos Lourenço</t>
+          <t>Ricardo Manuel de Seixas Boavida Ferreira</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -32082,7 +32118,7 @@
         <v>2596</v>
       </c>
       <c r="H354" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -32106,7 +32142,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Ana Cristina Garcia Pereira Cabral</t>
+          <t>Ana Carina dos Santos Lourenço</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -32118,7 +32154,7 @@
         <v>2596</v>
       </c>
       <c r="H355" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="356">
@@ -32142,7 +32178,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Cristina Maria Moniz Simões de Oliveira</t>
+          <t>Ana Cristina Garcia Pereira Cabral</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -32154,7 +32190,7 @@
         <v>2596</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357">
@@ -32178,7 +32214,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Dora Cristina Vicente Batista Lyon de Castro</t>
+          <t>Cristina Maria Moniz Simões de Oliveira</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -32190,7 +32226,7 @@
         <v>2596</v>
       </c>
       <c r="H357" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -32214,7 +32250,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Maria Leonor Mota Morais Cecílio</t>
+          <t>Dora Cristina Vicente Batista Lyon de Castro</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -32226,7 +32262,7 @@
         <v>2596</v>
       </c>
       <c r="H358" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359">
@@ -32250,7 +32286,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Luísa Cristina dos Mártires Ferreira de Carvalho</t>
+          <t>Maria Leonor Mota Morais Cecílio</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -32286,7 +32322,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Maria Manuela Antunes Gomes da Silva</t>
+          <t>Luísa Cristina dos Mártires Ferreira de Carvalho</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -32298,7 +32334,7 @@
         <v>2596</v>
       </c>
       <c r="H360" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361">
@@ -32322,7 +32358,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Mariana da Silva Gomes Mota</t>
+          <t>Maria Manuela Antunes Gomes da Silva</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -32334,7 +32370,7 @@
         <v>2596</v>
       </c>
       <c r="H361" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="362">
@@ -32358,7 +32394,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Pedro Manuel Vieira Talhinhas</t>
+          <t>Mariana da Silva Gomes Mota</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -32370,13 +32406,13 @@
         <v>2596</v>
       </c>
       <c r="H362" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>FLO</t>
+          <t>BIO</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -32389,35 +32425,35 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>José Afonso Rodrigues Graça</t>
+          <t>Ricardo Ferreira / Manuela Gomes da Silva</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>José Afonso Rodrigues Graça</t>
+          <t>Pedro Manuel Vieira Talhinhas</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tecnologia dos Produtos Florestais </t>
+          <t>Técnicas Laboratoriais em Biologia</t>
         </is>
       </c>
       <c r="G363" t="n">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="H363" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>FLO</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -32425,24 +32461,24 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Joaquim Miguel Rangel da Cunha Costa</t>
+          <t>José Afonso Rodrigues Graça</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Joaquim Miguel Rangel da Cunha Costa</t>
+          <t>José Afonso Rodrigues Graça</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Tecnologias de Produção Hortícola, Frutícola e Vitícola II</t>
+          <t xml:space="preserve">Tecnologia dos Produtos Florestais </t>
         </is>
       </c>
       <c r="G364" t="n">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="H364" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="365">
@@ -32466,7 +32502,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Luísa Cristina dos Mártires Ferreira de Carvalho</t>
+          <t>Joaquim Miguel Rangel da Cunha Costa</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -32478,7 +32514,7 @@
         <v>2598</v>
       </c>
       <c r="H365" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366">
@@ -32502,7 +32538,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t>Luísa Cristina dos Mártires Ferreira de Carvalho</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -32514,7 +32550,7 @@
         <v>2598</v>
       </c>
       <c r="H366" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="367">
@@ -32538,7 +32574,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Mariana da Silva Gomes Mota</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -32550,7 +32586,7 @@
         <v>2598</v>
       </c>
       <c r="H367" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368">
@@ -32574,7 +32610,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Cristina Maria Moniz Simões de Oliveira</t>
+          <t>Mariana da Silva Gomes Mota</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -32586,7 +32622,7 @@
         <v>2598</v>
       </c>
       <c r="H368" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="369">
@@ -32610,7 +32646,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Maria José Antão Pais de Almeida Cerejeira</t>
+          <t>Cristina Maria Moniz Simões de Oliveira</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -32628,12 +32664,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -32641,30 +32677,30 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Luís Paulo Almeida Faria Ribeiro</t>
+          <t>Joaquim Miguel Rangel da Cunha Costa</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Luis Paulo Almeida Faria Ribeiro</t>
+          <t>Maria José Antão Pais de Almeida Cerejeira</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t xml:space="preserve">Teoria da Arquitectura Paisagista </t>
+          <t>Tecnologias de Produção Hortícola, Frutícola e Vitícola II</t>
         </is>
       </c>
       <c r="G370" t="n">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="H370" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -32677,24 +32713,24 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira/Susana Maria de Abreu Dias</t>
+          <t>Luís Paulo Almeida Faria Ribeiro</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Susana Maria de Abreu Dias</t>
+          <t>Luis Paulo Almeida Faria Ribeiro</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t xml:space="preserve">Teoria e Métodos de Ecologia da Paisagem </t>
+          <t xml:space="preserve">Teoria da Arquitectura Paisagista </t>
         </is>
       </c>
       <c r="G371" t="n">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="H371" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="372">
@@ -32718,7 +32754,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Vanda Cristina de Carvalho Acácio</t>
+          <t>Susana Maria de Abreu Dias</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -32730,7 +32766,7 @@
         <v>2600</v>
       </c>
       <c r="H372" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="373">
@@ -32754,7 +32790,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Inês Guedelha Rebelo Marques Duarte</t>
+          <t>Vanda Cristina de Carvalho Acácio</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -32790,7 +32826,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Maria Cristina d Fonseca Ataíde Castel-Branco Alarcão Júdice</t>
+          <t>Inês Guedelha Rebelo Marques Duarte</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -32802,7 +32838,7 @@
         <v>2600</v>
       </c>
       <c r="H374" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="375">
@@ -32826,7 +32862,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira</t>
+          <t>Maria Cristina d Fonseca Ataíde Castel-Branco Alarcão Júdice</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -32838,18 +32874,18 @@
         <v>2600</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>EAMB</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -32857,24 +32893,24 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Miguel Pedro de Freitas Barbosa Mourato</t>
+          <t>Maria Teresa Marques Ferreira/Susana Maria de Abreu Dias</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Miguel Pedro de Freitas Barbosa Mourato</t>
+          <t>Maria Teresa Marques Ferreira</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Termodinâmica Aplicada</t>
+          <t xml:space="preserve">Teoria e Métodos de Ecologia da Paisagem </t>
         </is>
       </c>
       <c r="G376" t="n">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="H376" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -32898,7 +32934,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Olívio Godinho Patrício</t>
+          <t>Miguel Pedro de Freitas Barbosa Mourato</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -32910,7 +32946,7 @@
         <v>2601</v>
       </c>
       <c r="H377" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="378">
@@ -32929,24 +32965,24 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Rita do Amaral Fragoso</t>
+          <t>Miguel Pedro de Freitas Barbosa Mourato</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Rita do Amaral Fragoso</t>
+          <t>Olívio Godinho Patrício</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Tratamento de Águas e Efluentes</t>
+          <t>Termodinâmica Aplicada</t>
         </is>
       </c>
       <c r="G378" t="n">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="H378" t="n">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="379">
@@ -32970,7 +33006,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>António José Guerreiro de Brito</t>
+          <t>Rita do Amaral Fragoso</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -32982,7 +33018,7 @@
         <v>2602</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="380">
@@ -33006,7 +33042,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Ana Cristina Ferreira da Cunha Queda</t>
+          <t>António José Guerreiro de Brito</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -33018,7 +33054,7 @@
         <v>2602</v>
       </c>
       <c r="H380" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -33042,7 +33078,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Vitor Manuel Delgado Alves</t>
+          <t>Ana Cristina Ferreira da Cunha Queda</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -33054,7 +33090,7 @@
         <v>2602</v>
       </c>
       <c r="H381" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="382">
@@ -33073,35 +33109,35 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Ana Cristina Ferreira da Cunha Queda</t>
+          <t>Rita do Amaral Fragoso</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Ana Cristina Ferreira da Cunha Queda</t>
+          <t>Vitor Manuel Delgado Alves</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Tratamento de Resíduos e Valorização de Sub-Produtos</t>
+          <t>Tratamento de Águas e Efluentes</t>
         </is>
       </c>
       <c r="G382" t="n">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="H382" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EAMB</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -33109,21 +33145,21 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Ana Luísa Brito dos Santos de Sousa Soares</t>
+          <t>Ana Cristina Ferreira da Cunha Queda</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Ana Luísa Brito dos Santos de Sousa Soares</t>
+          <t>Ana Cristina Ferreira da Cunha Queda</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vegetação Aplicada a Projecto de Arquitectura Paisagista </t>
+          <t>Tratamento de Resíduos e Valorização de Sub-Produtos</t>
         </is>
       </c>
       <c r="G383" t="n">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="H383" t="n">
         <v>56</v>
@@ -33132,7 +33168,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>CAT/BIO</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -33145,24 +33181,24 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira/Susana Maria de Abreu Dias</t>
+          <t>Ana Luísa Brito dos Santos de Sousa Soares</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Susana Maria de Abreu Dias</t>
+          <t>Ana Luísa Brito dos Santos de Sousa Soares</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Zoologia e Diversidade Animal</t>
+          <t xml:space="preserve">Vegetação Aplicada a Projecto de Arquitectura Paisagista </t>
         </is>
       </c>
       <c r="G384" t="n">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="H384" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="385">
@@ -33186,7 +33222,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>José Carlos Franco Santos Silva</t>
+          <t>Susana Maria de Abreu Dias</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -33198,7 +33234,7 @@
         <v>2606</v>
       </c>
       <c r="H385" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="386">
@@ -33222,7 +33258,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
+          <t>José Carlos Franco Santos Silva</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -33234,7 +33270,7 @@
         <v>2606</v>
       </c>
       <c r="H386" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="387">
@@ -33258,7 +33294,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Paulo José de Lemos Branco</t>
+          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -33270,7 +33306,7 @@
         <v>2606</v>
       </c>
       <c r="H387" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="388">
@@ -33289,24 +33325,24 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>José Carlos Franco Santos Silva</t>
+          <t>Maria Teresa Marques Ferreira/Susana Maria de Abreu Dias</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>José Carlos Franco Santos Silva</t>
+          <t>Paulo José de Lemos Branco</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Zoologia Geral</t>
+          <t>Zoologia e Diversidade Animal</t>
         </is>
       </c>
       <c r="G388" t="n">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="H388" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389">
@@ -33330,7 +33366,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Manuela Rodrigues Branco Simões</t>
+          <t>José Carlos Franco Santos Silva</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -33366,7 +33402,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
+          <t>Manuela Rodrigues Branco Simões</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -33402,7 +33438,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Paulo José de Lemos Branco</t>
+          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -33420,12 +33456,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>EZOO</t>
+          <t>CAT/BIO</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -33433,24 +33469,24 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Maria Madalena dos Santos Lordelo Redford</t>
+          <t>José Carlos Franco Santos Silva</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>André Martinho de Almeida</t>
+          <t>Paulo José de Lemos Branco</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Zootecnia</t>
+          <t>Zoologia Geral</t>
         </is>
       </c>
       <c r="G392" t="n">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="H392" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="393">
@@ -33474,7 +33510,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Maria Madalena dos Santos Lordelo Redford</t>
+          <t>André Martinho de Almeida</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -33486,13 +33522,13 @@
         <v>2608</v>
       </c>
       <c r="H393" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>EZOO</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -33505,24 +33541,24 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Maria Odete Pereira Torres</t>
+          <t>Maria Madalena dos Santos Lordelo Redford</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Maria Odete Pereira Torres</t>
+          <t>Maria Madalena dos Santos Lordelo Redford</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Agricultura e Horticultura Biológica</t>
+          <t>Zootecnia</t>
         </is>
       </c>
       <c r="G394" t="n">
-        <v>1312</v>
+        <v>2608</v>
       </c>
       <c r="H394" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395">
@@ -33546,7 +33582,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Ana Cristina Ferreira da Cunha Queda</t>
+          <t>Maria Odete Pereira Torres</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -33558,7 +33594,7 @@
         <v>1312</v>
       </c>
       <c r="H395" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="396">
@@ -33582,7 +33618,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
+          <t>Ana Cristina Ferreira da Cunha Queda</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -33594,13 +33630,13 @@
         <v>1312</v>
       </c>
       <c r="H396" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>EALIM</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -33613,30 +33649,30 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Catarina Paula Guerra Geoffroy Prista</t>
+          <t>Maria Odete Pereira Torres</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Catarina Paula Guerra Geoffroy Prista</t>
+          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Alimentos Fermentados</t>
+          <t>Agricultura e Horticultura Biológica</t>
         </is>
       </c>
       <c r="G397" t="n">
-        <v>1808</v>
+        <v>1312</v>
       </c>
       <c r="H397" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>EALIM</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -33649,35 +33685,35 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Ricardo Nuno da Fonseca Garcia Pereira Braga</t>
+          <t>Catarina Paula Guerra Geoffroy Prista</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Ricardo Nuno da Fonseca Garcia Pereira Braga</t>
+          <t>Catarina Paula Guerra Geoffroy Prista</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Análise e Modelação de Sistemas Agro-Pecuários</t>
+          <t>Alimentos Fermentados</t>
         </is>
       </c>
       <c r="G398" t="n">
-        <v>1317</v>
+        <v>1808</v>
       </c>
       <c r="H398" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -33685,24 +33721,24 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira/Pedro Segurado</t>
+          <t>Ricardo Nuno da Fonseca Garcia Pereira Braga</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira</t>
+          <t>Ricardo Nuno da Fonseca Garcia Pereira Braga</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Análise e Visualização de Dados Complexos Agro- Ambientais</t>
+          <t>Análise e Modelação de Sistemas Agro-Pecuários</t>
         </is>
       </c>
       <c r="G399" t="n">
-        <v>2372</v>
+        <v>1317</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="400">
@@ -33726,7 +33762,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Pedro Segurado</t>
+          <t>Maria Teresa Marques Ferreira</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -33738,18 +33774,18 @@
         <v>2372</v>
       </c>
       <c r="H400" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -33757,24 +33793,24 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Maria Suzana Leitão Ferreira Dias Vicente</t>
+          <t>Maria Teresa Marques Ferreira/Pedro Segurado</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Maria Filipa Vinagre Marques da Silva Oliveira</t>
+          <t>Pedro Segurado</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Análise Sensorial</t>
+          <t>Análise e Visualização de Dados Complexos Agro- Ambientais</t>
         </is>
       </c>
       <c r="G401" t="n">
-        <v>1647</v>
+        <v>2372</v>
       </c>
       <c r="H401" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="402">
@@ -33798,7 +33834,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Maria Suzana Leitão Ferreira Dias Vicente</t>
+          <t>Maria Filipa Vinagre Marques da Silva Oliveira</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -33810,7 +33846,7 @@
         <v>1647</v>
       </c>
       <c r="H402" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="403">
@@ -33834,7 +33870,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Maria Helena Guimarães de Almeida</t>
+          <t>Maria Suzana Leitão Ferreira Dias Vicente</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -33846,13 +33882,13 @@
         <v>1647</v>
       </c>
       <c r="H403" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -33865,30 +33901,30 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
+          <t>Maria Suzana Leitão Ferreira Dias Vicente</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
+          <t>Maria Helena Guimarães de Almeida</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Aprendizagem Automática Aplicada</t>
+          <t>Análise Sensorial</t>
         </is>
       </c>
       <c r="G404" t="n">
-        <v>2373</v>
+        <v>1647</v>
       </c>
       <c r="H404" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t xml:space="preserve">EAMB </t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -33901,24 +33937,24 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>António José Guerreiro de Brito</t>
+          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>António José Guerreiro de Brito</t>
+          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Avaliação de Impactes Ambientais</t>
+          <t>Aprendizagem Automática Aplicada</t>
         </is>
       </c>
       <c r="G405" t="n">
-        <v>1651</v>
+        <v>2373</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="406">
@@ -33942,7 +33978,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>José Maria Horta e Costa Silva Santos</t>
+          <t>António José Guerreiro de Brito</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -33954,13 +33990,13 @@
         <v>1651</v>
       </c>
       <c r="H406" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>EAMB</t>
+          <t xml:space="preserve">EAMB </t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -33973,24 +34009,24 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Rita do Amaral Fragoso</t>
+          <t>António José Guerreiro de Brito</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Rita do Amaral Fragoso</t>
+          <t>José Maria Horta e Costa Silva Santos</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Bioenergias Renováveis e Processos de Conversão</t>
+          <t>Avaliação de Impactes Ambientais</t>
         </is>
       </c>
       <c r="G407" t="n">
-        <v>2184</v>
+        <v>1651</v>
       </c>
       <c r="H407" t="n">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="408">
@@ -34014,7 +34050,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Jorge Manuel Barros D'Almeida Gominho</t>
+          <t>Rita do Amaral Fragoso</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -34050,7 +34086,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Solange de Oliveira Araújo</t>
+          <t>Jorge Manuel Barros D'Almeida Gominho</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -34062,7 +34098,7 @@
         <v>2184</v>
       </c>
       <c r="H409" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="410">
@@ -34086,7 +34122,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Ana Carina dos Santos Lourenço</t>
+          <t>Solange de Oliveira Araújo</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -34104,7 +34140,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>EAMB</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -34117,24 +34153,24 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Maria Luísa Louro Martins</t>
+          <t>Rita do Amaral Fragoso</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Manuel José de Carvalho Pimenta Malfeito Ferreira</t>
+          <t>Ana Carina dos Santos Lourenço</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Bioquímica e Microbiologia dos Alimentos</t>
+          <t>Bioenergias Renováveis e Processos de Conversão</t>
         </is>
       </c>
       <c r="G411" t="n">
-        <v>1335</v>
+        <v>2184</v>
       </c>
       <c r="H411" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="412">
@@ -34158,7 +34194,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Maria Luíza Louro Martins</t>
+          <t>Manuel José de Carvalho Pimenta Malfeito Ferreira</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -34170,7 +34206,7 @@
         <v>1335</v>
       </c>
       <c r="H412" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="413">
@@ -34194,7 +34230,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Helena Manuela Gil Azinheira</t>
+          <t>Maria Luíza Louro Martins</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -34206,7 +34242,7 @@
         <v>1335</v>
       </c>
       <c r="H413" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="414">
@@ -34230,7 +34266,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Andreia Sofia Brotas da Costa Loureiro</t>
+          <t>Helena Manuela Gil Azinheira</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -34261,24 +34297,24 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Luísa Cristina dos Mártires Ferreira de Carvalho</t>
+          <t>Maria Luísa Louro Martins</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Luísa Cristina dos Mártires Ferreira de Carvalho</t>
+          <t>Andreia Sofia Brotas da Costa Loureiro</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Biotecnologia Vegetal</t>
+          <t>Bioquímica e Microbiologia dos Alimentos</t>
         </is>
       </c>
       <c r="G415" t="n">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="H415" t="n">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="416">
@@ -34302,7 +34338,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ricardo Manuel de Seixas Boavida Ferreira</t>
+          <t>Luísa Cristina dos Mártires Ferreira de Carvalho</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -34314,7 +34350,7 @@
         <v>1337</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="417">
@@ -34338,7 +34374,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Cristina Maria Moniz Simões de Oliveira</t>
+          <t>Ricardo Manuel de Seixas Boavida Ferreira</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -34350,7 +34386,7 @@
         <v>1337</v>
       </c>
       <c r="H417" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -34374,7 +34410,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Maria Leonor Mota Morais Cecílio</t>
+          <t>Cristina Maria Moniz Simões de Oliveira</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -34386,7 +34422,7 @@
         <v>1337</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419">
@@ -34410,7 +34446,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Dora Cristina Vicente Batista Lyon de Castro</t>
+          <t>Maria Leonor Mota Morais Cecílio</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -34422,7 +34458,7 @@
         <v>1337</v>
       </c>
       <c r="H419" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -34446,7 +34482,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Mariana da Silva Gomes Mota</t>
+          <t>Dora Cristina Vicente Batista Lyon de Castro</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -34458,7 +34494,7 @@
         <v>1337</v>
       </c>
       <c r="H420" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421">
@@ -34482,7 +34518,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Ana Isabel Faria Ribeiro</t>
+          <t>Mariana da Silva Gomes Mota</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -34494,7 +34530,7 @@
         <v>1337</v>
       </c>
       <c r="H421" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="422">
@@ -34518,7 +34554,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Isabel Cristina dos Santos Lourenço Marques</t>
+          <t>Ana Isabel Faria Ribeiro</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -34554,7 +34590,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Helena Manuela Gil Azinheira</t>
+          <t>Isabel Cristina dos Santos Lourenço Marques</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -34566,7 +34602,7 @@
         <v>1337</v>
       </c>
       <c r="H423" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="424">
@@ -34585,24 +34621,24 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
+          <t>Luísa Cristina dos Mártires Ferreira de Carvalho</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
+          <t>Helena Manuela Gil Azinheira</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Composição Química e Análise Sensorial da Uva e do Vinho</t>
+          <t>Biotecnologia Vegetal</t>
         </is>
       </c>
       <c r="G424" t="n">
-        <v>1566</v>
+        <v>1337</v>
       </c>
       <c r="H424" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="425">
@@ -34626,7 +34662,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Sofia Cristina Gomes Catarino</t>
+          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -34638,13 +34674,13 @@
         <v>1566</v>
       </c>
       <c r="H425" t="n">
-        <v>7.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>EZOO</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -34657,30 +34693,30 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
+          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
+          <t>Sofia Cristina Gomes Catarino</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Comunicação em Ciência</t>
+          <t>Composição Química e Análise Sensorial da Uva e do Vinho</t>
         </is>
       </c>
       <c r="G426" t="n">
-        <v>2188</v>
+        <v>1566</v>
       </c>
       <c r="H426" t="n">
-        <v>23</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>EZOO</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -34693,24 +34729,24 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Jorge Manuel Rodrigues Ricardo da Silva / Sofia Catarino</t>
+          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Sofia Cristina Gomes Catarino</t>
+          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Conservação e Estabilização de Vinhos</t>
+          <t>Comunicação em Ciência</t>
         </is>
       </c>
       <c r="G427" t="n">
-        <v>1572</v>
+        <v>2188</v>
       </c>
       <c r="H427" t="n">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="428">
@@ -34734,7 +34770,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
+          <t>Sofia Cristina Gomes Catarino</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -34746,7 +34782,7 @@
         <v>1572</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="429">
@@ -34765,30 +34801,30 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Maria Luísa Lopes de Castro e Brito</t>
+          <t>Jorge Manuel Rodrigues Ricardo da Silva / Sofia Catarino</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Maria Luísa Lopes de Castro e Brito</t>
+          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Controlo de Contaminantes e Patogénios Alimentares</t>
+          <t>Conservação e Estabilização de Vinhos</t>
         </is>
       </c>
       <c r="G429" t="n">
-        <v>1673</v>
+        <v>1572</v>
       </c>
       <c r="H429" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -34801,21 +34837,21 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>José Paulo Pimentel de Castro Coelho</t>
+          <t>Maria Luísa Lopes de Castro e Brito</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>José Paulo Pimentel de Castro Coelho</t>
+          <t>Maria Luísa Lopes de Castro e Brito</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Culturas Arvenses e Forrageiras</t>
+          <t>Controlo de Contaminantes e Patogénios Alimentares</t>
         </is>
       </c>
       <c r="G430" t="n">
-        <v>2180</v>
+        <v>1673</v>
       </c>
       <c r="H430" t="n">
         <v>70</v>
@@ -34824,7 +34860,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -34837,35 +34873,35 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
+          <t>José Paulo Pimentel de Castro Coelho</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
+          <t>José Paulo Pimentel de Castro Coelho</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Derivados e Sub-Produtos da Uva e do Vinho</t>
+          <t>Culturas Arvenses e Forrageiras</t>
         </is>
       </c>
       <c r="G431" t="n">
-        <v>1674</v>
+        <v>2180</v>
       </c>
       <c r="H431" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -34873,30 +34909,30 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Cristina Castel-Branco</t>
+          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Maria Cristina d Fonseca Ataíde Castel-Branco Alarcão Júdice</t>
+          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Desenho de Representação e Apresentação da Paisagem</t>
+          <t>Derivados e Sub-Produtos da Uva e do Vinho</t>
         </is>
       </c>
       <c r="G432" t="n">
-        <v>1619</v>
+        <v>1674</v>
       </c>
       <c r="H432" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -34909,30 +34945,30 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>José Miguel Oliveira Cardoso Pereira</t>
+          <t>Cristina Castel-Branco</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>José Miguel Oliveira Cardoso Pereira</t>
+          <t>Maria Cristina d Fonseca Ataíde Castel-Branco Alarcão Júdice</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Detecção Remota e Análise de Imagem</t>
+          <t>Desenho de Representação e Apresentação da Paisagem</t>
         </is>
       </c>
       <c r="G433" t="n">
-        <v>1349</v>
+        <v>1619</v>
       </c>
       <c r="H433" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -34945,24 +34981,24 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Cristina da Fonseca Ataide Castel-Branco Alarcão Júdice/Susana Maria de Abreu Dias </t>
+          <t>José Miguel Oliveira Cardoso Pereira</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Susana Maria de Abreu Dias</t>
+          <t>José Miguel Oliveira Cardoso Pereira</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Ecologia da Paisagem Aplicada</t>
+          <t>Detecção Remota e Análise de Imagem</t>
         </is>
       </c>
       <c r="G434" t="n">
-        <v>1614</v>
+        <v>1349</v>
       </c>
       <c r="H434" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="435">
@@ -34986,7 +35022,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Vanda Cristina de Carvalho Acácio</t>
+          <t>Susana Maria de Abreu Dias</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -34998,7 +35034,7 @@
         <v>1614</v>
       </c>
       <c r="H435" t="n">
-        <v>22.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="436">
@@ -35022,7 +35058,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Maria Cristina d Fonseca Ataíde Castel-Branco Alarcão Júdice</t>
+          <t>Vanda Cristina de Carvalho Acácio</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -35034,13 +35070,13 @@
         <v>1614</v>
       </c>
       <c r="H436" t="n">
-        <v>2.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -35053,24 +35089,24 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>José Guilherme Martins Dias Calvão Borges</t>
+          <t xml:space="preserve">Maria Cristina da Fonseca Ataide Castel-Branco Alarcão Júdice/Susana Maria de Abreu Dias </t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>José Guilherme Martins Dias Calvão Borges</t>
+          <t>Maria Cristina d Fonseca Ataíde Castel-Branco Alarcão Júdice</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Ecologia das Florestas Mediterrânicas: Problemas de Investigação e Casos de Estudo</t>
+          <t>Ecologia da Paisagem Aplicada</t>
         </is>
       </c>
       <c r="G437" t="n">
-        <v>1954</v>
+        <v>1614</v>
       </c>
       <c r="H437" t="n">
-        <v>34</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="438">
@@ -35089,24 +35125,24 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Manuela Rodrigues Branco Simões</t>
+          <t>José Guilherme Martins Dias Calvão Borges</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Manuela Rodrigues Branco Simões</t>
+          <t>José Guilherme Martins Dias Calvão Borges</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Ecologia e Gestão de Populações Animais</t>
+          <t>Ecologia das Florestas Mediterrânicas: Problemas de Investigação e Casos de Estudo</t>
         </is>
       </c>
       <c r="G438" t="n">
-        <v>1359</v>
+        <v>1954</v>
       </c>
       <c r="H438" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="439">
@@ -35130,7 +35166,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Susana Maria de Abreu Dias</t>
+          <t>Manuela Rodrigues Branco Simões</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -35142,7 +35178,7 @@
         <v>1359</v>
       </c>
       <c r="H439" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="440">
@@ -35161,24 +35197,24 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>José Miguel Oliveira Cardoso Pereira</t>
+          <t>Manuela Rodrigues Branco Simões</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>José Miguel Oliveira Cardoso Pereira</t>
+          <t>Susana Maria de Abreu Dias</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Ecologia e Gestão do Fogo</t>
+          <t>Ecologia e Gestão de Populações Animais</t>
         </is>
       </c>
       <c r="G440" t="n">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H440" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="441">
@@ -35202,7 +35238,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>João Manuel das Neves Silva</t>
+          <t>José Miguel Oliveira Cardoso Pereira</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -35214,18 +35250,18 @@
         <v>1360</v>
       </c>
       <c r="H441" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ECON</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -35233,24 +35269,24 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>José Manuel Osório de Barros de Lima e Santos</t>
+          <t>José Miguel Oliveira Cardoso Pereira</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>José Manuel Osório de Barros de Lima e Santos</t>
+          <t>João Manuel das Neves Silva</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Economia do Ambiente e dos Recursos Naturais</t>
+          <t>Ecologia e Gestão do Fogo</t>
         </is>
       </c>
       <c r="G442" t="n">
-        <v>2183</v>
+        <v>1360</v>
       </c>
       <c r="H442" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443">
@@ -35274,7 +35310,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Paulo Pacheco de Castro Flores Ribeiro</t>
+          <t>José Manuel Osório de Barros de Lima e Santos</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -35286,7 +35322,7 @@
         <v>2183</v>
       </c>
       <c r="H443" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="444">
@@ -35310,19 +35346,19 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>José Manuel Osório de Barros de Lima e Santos</t>
+          <t>Paulo Pacheco de Castro Flores Ribeiro</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Economia e Sustentabilidade da Cadeia de Valor</t>
+          <t>Economia do Ambiente e dos Recursos Naturais</t>
         </is>
       </c>
       <c r="G444" t="n">
-        <v>1361</v>
+        <v>2183</v>
       </c>
       <c r="H444" t="n">
-        <v>67.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="445">
@@ -35346,7 +35382,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Paulo Pacheco de Castro Flores Ribeiro</t>
+          <t>José Manuel Osório de Barros de Lima e Santos</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -35358,7 +35394,7 @@
         <v>1361</v>
       </c>
       <c r="H445" t="n">
-        <v>30</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="446">
@@ -35382,7 +35418,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Luís Manuel Bignolas Mira da Silva</t>
+          <t>Paulo Pacheco de Castro Flores Ribeiro</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -35394,18 +35430,18 @@
         <v>1361</v>
       </c>
       <c r="H446" t="n">
-        <v>7.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>ECON</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -35413,24 +35449,24 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira/Susana Maria de Abreu Dias</t>
+          <t>José Manuel Osório de Barros de Lima e Santos</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Susana Maria de Abreu Dias</t>
+          <t>Luís Manuel Bignolas Mira da Silva</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>Ecoturismo e Valorização de Recursos Naturais</t>
+          <t>Economia e Sustentabilidade da Cadeia de Valor</t>
         </is>
       </c>
       <c r="G447" t="n">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="H447" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="448">
@@ -35454,7 +35490,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Rui Paulo Nóbrega Figueira</t>
+          <t>Susana Maria de Abreu Dias</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -35466,7 +35502,7 @@
         <v>1365</v>
       </c>
       <c r="H448" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="449">
@@ -35490,7 +35526,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Luís Filipe Sanches Goulão</t>
+          <t>Rui Paulo Nóbrega Figueira</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -35502,7 +35538,7 @@
         <v>1365</v>
       </c>
       <c r="H449" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="450">
@@ -35526,7 +35562,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Luís Manuel Bignolas Mira da Silva</t>
+          <t>Luís Filipe Sanches Goulão</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -35538,7 +35574,7 @@
         <v>1365</v>
       </c>
       <c r="H450" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451">
@@ -35562,7 +35598,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira</t>
+          <t>Luís Manuel Bignolas Mira da Silva</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -35574,18 +35610,18 @@
         <v>1365</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ERUR</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -35593,24 +35629,24 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Maria Teresa Gomes Afonso do Paço</t>
+          <t>Maria Teresa Marques Ferreira/Susana Maria de Abreu Dias</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Maria Teresa Gomes Afonso do Paço</t>
+          <t>Maria Teresa Marques Ferreira</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Engenharia Aplicada à Arquitectura Paisagista</t>
+          <t>Ecoturismo e Valorização de Recursos Naturais</t>
         </is>
       </c>
       <c r="G452" t="n">
-        <v>1612</v>
+        <v>1365</v>
       </c>
       <c r="H452" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -35634,7 +35670,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>João Rui Rolim Fernandes Machado Lopes</t>
+          <t>Maria Teresa Gomes Afonso do Paço</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -35646,7 +35682,7 @@
         <v>1612</v>
       </c>
       <c r="H453" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="454">
@@ -35665,35 +35701,35 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>António José Guerreiro de Brito</t>
+          <t>Maria Teresa Gomes Afonso do Paço</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>António José Guerreiro de Brito</t>
+          <t>João Rui Rolim Fernandes Machado Lopes</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Engenharia da Água</t>
+          <t>Engenharia Aplicada à Arquitectura Paisagista</t>
         </is>
       </c>
       <c r="G454" t="n">
-        <v>1367</v>
+        <v>1612</v>
       </c>
       <c r="H454" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>ERUR</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -35701,24 +35737,24 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>José Afonso Rodrigues Graça</t>
+          <t>António José Guerreiro de Brito</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>José Afonso Rodrigues Graça</t>
+          <t>António José Guerreiro de Brito</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Engenharia dos Produtos Florestais I</t>
+          <t>Engenharia da Água</t>
         </is>
       </c>
       <c r="G455" t="n">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H455" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="456">
@@ -35742,7 +35778,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Solange de Oliveira Araújo</t>
+          <t>José Afonso Rodrigues Graça</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -35754,7 +35790,7 @@
         <v>1368</v>
       </c>
       <c r="H456" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="457">
@@ -35778,7 +35814,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Ana Carina dos Santos Lourenço</t>
+          <t>Solange de Oliveira Araújo</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -35796,12 +35832,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -35809,24 +35845,24 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t xml:space="preserve">Olívio Godinho Patrício </t>
+          <t>José Afonso Rodrigues Graça</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Olívio Godinho Patrício</t>
+          <t>Ana Carina dos Santos Lourenço</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>Engenharia e Tecnologia Agrícolas</t>
+          <t>Engenharia dos Produtos Florestais I</t>
         </is>
       </c>
       <c r="G458" t="n">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="H458" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="459">
@@ -35850,7 +35886,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>João Rui Rolim Fernandes Machado Lopes</t>
+          <t>Olívio Godinho Patrício</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -35862,7 +35898,7 @@
         <v>1370</v>
       </c>
       <c r="H459" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="460">
@@ -35886,7 +35922,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Ricardo Nuno da Fonseca Garcia Pereira Braga</t>
+          <t>João Rui Rolim Fernandes Machado Lopes</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -35904,7 +35940,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -35917,24 +35953,24 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
+          <t xml:space="preserve">Olívio Godinho Patrício </t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
+          <t>Ricardo Nuno da Fonseca Garcia Pereira Braga</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Engenharia Enológica</t>
+          <t>Engenharia e Tecnologia Agrícolas</t>
         </is>
       </c>
       <c r="G461" t="n">
-        <v>1571</v>
+        <v>1370</v>
       </c>
       <c r="H461" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="462">
@@ -35958,7 +35994,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Rita do Amaral Fragoso</t>
+          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -35970,13 +36006,13 @@
         <v>1571</v>
       </c>
       <c r="H462" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -35989,24 +36025,24 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
+          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
+          <t>Rita do Amaral Fragoso</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>Entomologia Aplicada</t>
+          <t>Engenharia Enológica</t>
         </is>
       </c>
       <c r="G463" t="n">
-        <v>1371</v>
+        <v>1571</v>
       </c>
       <c r="H463" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="464">
@@ -36030,7 +36066,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>José Carlos Franco Santos Silva</t>
+          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -36048,7 +36084,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -36061,24 +36097,24 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
+          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
+          <t>José Carlos Franco Santos Silva</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>Estágio Profissionalizante e Visita de Estudo</t>
+          <t>Entomologia Aplicada</t>
         </is>
       </c>
       <c r="G465" t="n">
-        <v>1681</v>
+        <v>1371</v>
       </c>
       <c r="H465" t="n">
-        <v>17.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="466">
@@ -36102,7 +36138,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Manuel José de Carvalho Pimenta Malfeito Ferreira</t>
+          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -36120,7 +36156,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -36133,24 +36169,24 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Elsa Maria Félix Gonçalves</t>
+          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Elsa Maria Félix Gonçalves</t>
+          <t>Manuel José de Carvalho Pimenta Malfeito Ferreira</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Estatística e Delineamento</t>
+          <t>Estágio Profissionalizante e Visita de Estudo</t>
         </is>
       </c>
       <c r="G467" t="n">
-        <v>1374</v>
+        <v>1681</v>
       </c>
       <c r="H467" t="n">
-        <v>140</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="468">
@@ -36174,7 +36210,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Fernanda Maria dos Reis Torroaes Valente</t>
+          <t>Elsa Maria Félix Gonçalves</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -36186,7 +36222,7 @@
         <v>1374</v>
       </c>
       <c r="H468" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="469">
@@ -36210,7 +36246,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Marta Guerreiro Duarte Mesquita de Oliveira</t>
+          <t>Fernanda Maria dos Reis Torroaes Valente</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -36228,7 +36264,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ECON</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -36241,24 +36277,24 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Luís Manuel Bignolas Mira da Silva</t>
+          <t>Elsa Maria Félix Gonçalves</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Luís Manuel Bignolas Mira da Silva</t>
+          <t>Marta Guerreiro Duarte Mesquita de Oliveira</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Estratégia Empresarial e Avaliação de Projectos</t>
+          <t>Estatística e Delineamento</t>
         </is>
       </c>
       <c r="G470" t="n">
-        <v>2176</v>
+        <v>1374</v>
       </c>
       <c r="H470" t="n">
-        <v>70</v>
+        <v>126</v>
       </c>
     </row>
     <row r="471">
@@ -36282,7 +36318,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Francisco Ramos Lopes Gomes da Silva</t>
+          <t>Luís Manuel Bignolas Mira da Silva</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -36300,7 +36336,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>ECON</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -36313,24 +36349,24 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t>Luís Manuel Bignolas Mira da Silva</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t>Francisco Ramos Lopes Gomes da Silva</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Estratégias de Protecção Integrada</t>
+          <t>Estratégia Empresarial e Avaliação de Projectos</t>
         </is>
       </c>
       <c r="G472" t="n">
-        <v>1377</v>
+        <v>2176</v>
       </c>
       <c r="H472" t="n">
-        <v>22.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="473">
@@ -36354,7 +36390,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>José Carlos Franco Santos Silva</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -36366,7 +36402,7 @@
         <v>1377</v>
       </c>
       <c r="H473" t="n">
-        <v>10</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="474">
@@ -36390,7 +36426,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
+          <t>José Carlos Franco Santos Silva</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -36402,7 +36438,7 @@
         <v>1377</v>
       </c>
       <c r="H474" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="475">
@@ -36426,7 +36462,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Ana Maria da Costa Aldir Magro</t>
+          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -36438,7 +36474,7 @@
         <v>1377</v>
       </c>
       <c r="H475" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="476">
@@ -36462,7 +36498,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Ana Paula de Mira do Carmo Pereira</t>
+          <t>Ana Maria da Costa Aldir Magro</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -36474,7 +36510,7 @@
         <v>1377</v>
       </c>
       <c r="H476" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="477">
@@ -36498,7 +36534,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Maria da Graça Fraga Freire de Barros Barbosa da Maia</t>
+          <t>Ana Paula de Mira do Carmo Pereira</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -36529,35 +36565,35 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Henrique Manuel Filipe Ribeiro</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Henrique Manuel Filipe Ribeiro</t>
+          <t>Maria da Graça Fraga Freire de Barros Barbosa da Maia</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Fertilizantes e Técnicas de Fertilização</t>
+          <t>Estratégias de Protecção Integrada</t>
         </is>
       </c>
       <c r="G478" t="n">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H478" t="n">
-        <v>112</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -36565,24 +36601,24 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Nuno Renato da Silva Cortez</t>
+          <t>Henrique Manuel Filipe Ribeiro</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Nuno Renato da Silva Cortez</t>
+          <t>Henrique Manuel Filipe Ribeiro</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Formação e Conservação do Solo</t>
+          <t>Fertilizantes e Técnicas de Fertilização</t>
         </is>
       </c>
       <c r="G479" t="n">
-        <v>2175</v>
+        <v>1379</v>
       </c>
       <c r="H479" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="480">
@@ -36606,7 +36642,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Erika da Silva dos Santos</t>
+          <t>Nuno Renato da Silva Cortez</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -36618,18 +36654,18 @@
         <v>2175</v>
       </c>
       <c r="H480" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -36637,24 +36673,24 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Cristina Maria Moniz Simões Oliveira</t>
+          <t>Nuno Renato da Silva Cortez</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Cristina Maria Moniz Simões de Oliveira</t>
+          <t>Erika da Silva dos Santos</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Fruticultura</t>
+          <t>Formação e Conservação do Solo</t>
         </is>
       </c>
       <c r="G481" t="n">
-        <v>1382</v>
+        <v>2175</v>
       </c>
       <c r="H481" t="n">
-        <v>102.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="482">
@@ -36678,7 +36714,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Mariana da Silva Gomes Mota</t>
+          <t>Cristina Maria Moniz Simões de Oliveira</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -36690,18 +36726,18 @@
         <v>1382</v>
       </c>
       <c r="H482" t="n">
-        <v>2.5</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -36709,24 +36745,24 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Teresa Marques Ferreira/Rui Paulo Nóbrega Figueira </t>
+          <t>Cristina Maria Moniz Simões Oliveira</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Rui Paulo Nóbrega Figueira</t>
+          <t>Mariana da Silva Gomes Mota</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Fundamentos da Ciência de Dados Agro-Ambientais</t>
+          <t>Fruticultura</t>
         </is>
       </c>
       <c r="G483" t="n">
-        <v>2369</v>
+        <v>1382</v>
       </c>
       <c r="H483" t="n">
-        <v>34</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="484">
@@ -36750,7 +36786,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira</t>
+          <t>Rui Paulo Nóbrega Figueira</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -36762,18 +36798,18 @@
         <v>2369</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -36781,24 +36817,24 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Joaquim Miguel Rangel da Cunha Costa</t>
+          <t xml:space="preserve">Maria Teresa Marques Ferreira/Rui Paulo Nóbrega Figueira </t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Joaquim Miguel Rangel da Cunha Costa</t>
+          <t>Maria Teresa Marques Ferreira</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Fundamentos da Viticultura</t>
+          <t>Fundamentos da Ciência de Dados Agro-Ambientais</t>
         </is>
       </c>
       <c r="G485" t="n">
-        <v>1576</v>
+        <v>2369</v>
       </c>
       <c r="H485" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -36822,7 +36858,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Carlos Manuel Antunes Lopes</t>
+          <t>Joaquim Miguel Rangel da Cunha Costa</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -36834,18 +36870,18 @@
         <v>1576</v>
       </c>
       <c r="H486" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -36853,24 +36889,24 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Maria Margarida Branco de Brito Tavares Tomé/Filipe Miguel de Carvalho Costa e Silva</t>
+          <t>Joaquim Miguel Rangel da Cunha Costa</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Maria Margarida Branco de Brito Tavares Tomé</t>
+          <t>Carlos Manuel Antunes Lopes</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Genética e Melhoramento Florestal</t>
+          <t>Fundamentos da Viticultura</t>
         </is>
       </c>
       <c r="G487" t="n">
-        <v>1387</v>
+        <v>1576</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="488">
@@ -36894,7 +36930,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Filipe Miguel de Carvalho Costa e Silva</t>
+          <t>Maria Margarida Branco de Brito Tavares Tomé</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -36906,18 +36942,18 @@
         <v>1387</v>
       </c>
       <c r="H488" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -36925,24 +36961,24 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elsa Maria Félix Gonçalves </t>
+          <t>Maria Margarida Branco de Brito Tavares Tomé/Filipe Miguel de Carvalho Costa e Silva</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Elsa Maria Félix Gonçalves</t>
+          <t>Filipe Miguel de Carvalho Costa e Silva</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Genética Quantitativa e Melhoramento de Plantas</t>
+          <t>Genética e Melhoramento Florestal</t>
         </is>
       </c>
       <c r="G489" t="n">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H489" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="490">
@@ -36966,7 +37002,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Ana Cristina Riepenhausen Delaunay Caperta</t>
+          <t>Elsa Maria Félix Gonçalves</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -36978,7 +37014,7 @@
         <v>1388</v>
       </c>
       <c r="H490" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="491">
@@ -37002,7 +37038,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Pedro Manuel Vieira Talhinhas</t>
+          <t>Ana Cristina Riepenhausen Delaunay Caperta</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -37020,12 +37056,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -37033,24 +37069,24 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Maria Margarida Branco de Brito Tavares Tomé/Miguel Nuno do Sacramento Monteiro Bugalho</t>
+          <t xml:space="preserve">Elsa Maria Félix Gonçalves </t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Maria Margarida Branco de Brito Tavares Tomé</t>
+          <t>Pedro Manuel Vieira Talhinhas</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>Gestão da Fauna Silvestre</t>
+          <t>Genética Quantitativa e Melhoramento de Plantas</t>
         </is>
       </c>
       <c r="G492" t="n">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="493">
@@ -37074,7 +37110,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Miguel Nuno do Sacramento Monteiro Bugalho</t>
+          <t>Maria Margarida Branco de Brito Tavares Tomé</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
@@ -37086,7 +37122,7 @@
         <v>1392</v>
       </c>
       <c r="H493" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -37105,24 +37141,24 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>José Guilherme Martins Dias Calvão Borges</t>
+          <t>Maria Margarida Branco de Brito Tavares Tomé/Miguel Nuno do Sacramento Monteiro Bugalho</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>José Guilherme Martins Dias Calvão Borges</t>
+          <t>Miguel Nuno do Sacramento Monteiro Bugalho</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>Gestão de Florestas Mediterrânicas: Problemas de Investigação e Casos de Estudo</t>
+          <t>Gestão da Fauna Silvestre</t>
         </is>
       </c>
       <c r="G494" t="n">
-        <v>1904</v>
+        <v>1392</v>
       </c>
       <c r="H494" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="495">
@@ -37151,14 +37187,14 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>Gestão de Recursos Naturais</t>
+          <t>Gestão de Florestas Mediterrânicas: Problemas de Investigação e Casos de Estudo</t>
         </is>
       </c>
       <c r="G495" t="n">
-        <v>1396</v>
+        <v>1904</v>
       </c>
       <c r="H495" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="496">
@@ -37182,7 +37218,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Pedro César Ochôa de Carvalho</t>
+          <t>José Guilherme Martins Dias Calvão Borges</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
@@ -37194,7 +37230,7 @@
         <v>1396</v>
       </c>
       <c r="H496" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="497">
@@ -37213,24 +37249,24 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>José Miguel Oliveira Cardoso Pereira</t>
+          <t>José Guilherme Martins Dias Calvão Borges</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>José Miguel Oliveira Cardoso Pereira</t>
+          <t>Pedro César Ochôa de Carvalho</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>Gestão de Risco de Incêndios Florestais - da Prevenção à Recuperação</t>
+          <t>Gestão de Recursos Naturais</t>
         </is>
       </c>
       <c r="G497" t="n">
-        <v>1906</v>
+        <v>1396</v>
       </c>
       <c r="H497" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="498">
@@ -37249,24 +37285,24 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Teresa Marques Ferreira/Rui Paulo Nóbrega Figueira </t>
+          <t>José Miguel Oliveira Cardoso Pereira</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Rui Paulo Nóbrega Figueira</t>
+          <t>José Miguel Oliveira Cardoso Pereira</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>Gestão e Armazenamento de Dados</t>
+          <t>Gestão de Risco de Incêndios Florestais - da Prevenção à Recuperação</t>
         </is>
       </c>
       <c r="G498" t="n">
-        <v>2371</v>
+        <v>1906</v>
       </c>
       <c r="H498" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="499">
@@ -37290,7 +37326,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira</t>
+          <t>Rui Paulo Nóbrega Figueira</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -37302,7 +37338,7 @@
         <v>2371</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="500">
@@ -37321,24 +37357,24 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>José Carlos Augusta da Costa/Patricia Maria Rodriguez Gonzalez</t>
+          <t xml:space="preserve">Maria Teresa Marques Ferreira/Rui Paulo Nóbrega Figueira </t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>José Carlos Augusta da Costa</t>
+          <t>Maria Teresa Marques Ferreira</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>Gestão e Conservação da Vegetação e de Sistemas Agro-Florestais</t>
+          <t>Gestão e Armazenamento de Dados</t>
         </is>
       </c>
       <c r="G500" t="n">
-        <v>1398</v>
+        <v>2371</v>
       </c>
       <c r="H500" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -37362,7 +37398,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Patricia Maria Rodriguez Gonzalez</t>
+          <t>José Carlos Augusta da Costa</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -37374,7 +37410,7 @@
         <v>1398</v>
       </c>
       <c r="H501" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="502">
@@ -37393,24 +37429,24 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira/José Maria Horta e Costa Silva Santos</t>
+          <t>José Carlos Augusta da Costa/Patricia Maria Rodriguez Gonzalez</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira</t>
+          <t>Patricia Maria Rodriguez Gonzalez</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>Gestão e Conservação de Ecossistemas de Águas Interiores</t>
+          <t>Gestão e Conservação da Vegetação e de Sistemas Agro-Florestais</t>
         </is>
       </c>
       <c r="G502" t="n">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="H502" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="503">
@@ -37434,7 +37470,7 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>José Maria Horta e Costa Silva Santos</t>
+          <t>Maria Teresa Marques Ferreira</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -37452,12 +37488,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -37465,21 +37501,21 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
+          <t>Maria Teresa Marques Ferreira/José Maria Horta e Costa Silva Santos</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
+          <t>José Maria Horta e Costa Silva Santos</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>Gestão Integrada da Qualidade</t>
+          <t>Gestão e Conservação de Ecossistemas de Águas Interiores</t>
         </is>
       </c>
       <c r="G504" t="n">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="H504" t="n">
         <v>35</v>
@@ -37506,7 +37542,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>Catarina Paula Guerra Geoffroy Prista</t>
+          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -37524,12 +37560,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -37537,21 +37573,21 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>Manuela Rodrigues Branco Simões</t>
+          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>Manuela Rodrigues Branco Simões</t>
+          <t>Catarina Paula Guerra Geoffroy Prista</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>Gestão Integrada de Pragas e Doenças Florestais</t>
+          <t>Gestão Integrada da Qualidade</t>
         </is>
       </c>
       <c r="G506" t="n">
-        <v>1736</v>
+        <v>1404</v>
       </c>
       <c r="H506" t="n">
         <v>35</v>
@@ -37578,7 +37614,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>Ana Paula Ferreira Ramos</t>
+          <t>Manuela Rodrigues Branco Simões</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -37596,12 +37632,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ECON</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -37609,35 +37645,35 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Francisco Ramos Lopes Gomes da Silva</t>
+          <t>Manuela Rodrigues Branco Simões</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>Francisco Ramos Lopes Gomes da Silva</t>
+          <t>Ana Paula Ferreira Ramos</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>Gestão, Marketing e Comercialização no Sector Vitivinícola</t>
+          <t>Gestão Integrada de Pragas e Doenças Florestais</t>
         </is>
       </c>
       <c r="G508" t="n">
-        <v>1570</v>
+        <v>1736</v>
       </c>
       <c r="H508" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>ECON</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -37645,35 +37681,35 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>Pedro César Ochôa de Carvalho</t>
+          <t>Francisco Ramos Lopes Gomes da Silva</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>Pedro César Ochôa de Carvalho</t>
+          <t>Francisco Ramos Lopes Gomes da Silva</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Governança Florestal</t>
+          <t>Gestão, Marketing e Comercialização no Sector Vitivinícola</t>
         </is>
       </c>
       <c r="G509" t="n">
-        <v>1472</v>
+        <v>1570</v>
       </c>
       <c r="H509" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>BIO</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t xml:space="preserve">DRAT </t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -37681,24 +37717,24 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Ricardo Manuel Seixas Boavida Ferreira/Francisca Constança Frutuoso de Aguiar</t>
+          <t>Pedro César Ochôa de Carvalho</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>Francisca Constança Frutuoso Aguiar</t>
+          <t>Pedro César Ochôa de Carvalho</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>Herbologia</t>
+          <t>Governança Florestal</t>
         </is>
       </c>
       <c r="G510" t="n">
-        <v>1407</v>
+        <v>1472</v>
       </c>
       <c r="H510" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="511">
@@ -37722,7 +37758,7 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>Ricardo Manuel de Seixas Boavida Ferreira</t>
+          <t>Francisca Constança Frutuoso Aguiar</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -37734,7 +37770,7 @@
         <v>1407</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="512">
@@ -37758,7 +37794,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>Ana Maria da Silva Monteiro</t>
+          <t>Ricardo Manuel de Seixas Boavida Ferreira</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -37770,18 +37806,18 @@
         <v>1407</v>
       </c>
       <c r="H512" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ERUR</t>
+          <t>BIO</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t xml:space="preserve">DRAT </t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -37789,35 +37825,35 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isabel Maria Cerqueira Lopes Alves </t>
+          <t>Ricardo Manuel Seixas Boavida Ferreira/Francisca Constança Frutuoso de Aguiar</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>Isabel Maria Cerqueira Lopes Alves</t>
+          <t>Ana Maria da Silva Monteiro</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Hidráulica</t>
+          <t>Herbologia</t>
         </is>
       </c>
       <c r="G513" t="n">
-        <v>1700</v>
+        <v>1407</v>
       </c>
       <c r="H513" t="n">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>ERUR</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -37825,35 +37861,35 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Cabral Matos Silva Aires Pereira </t>
+          <t xml:space="preserve">Isabel Maria Cerqueira Lopes Alves </t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>Maria Cabral Matos Silva Aires Pereira</t>
+          <t>Isabel Maria Cerqueira Lopes Alves</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>História do Urbanismo</t>
+          <t>Hidráulica</t>
         </is>
       </c>
       <c r="G514" t="n">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="H514" t="n">
-        <v>56</v>
+        <v>140</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -37861,24 +37897,24 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>João Carlos da Silva Dias</t>
+          <t xml:space="preserve">Maria Cabral Matos Silva Aires Pereira </t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>João Carlos da Silva Dias</t>
+          <t>Maria Cabral Matos Silva Aires Pereira</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Horticultura Herbácea</t>
+          <t>História do Urbanismo</t>
         </is>
       </c>
       <c r="G515" t="n">
-        <v>1412</v>
+        <v>1703</v>
       </c>
       <c r="H515" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="516">
@@ -37897,24 +37933,24 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Ana Paula Ferreira Ramos</t>
+          <t>João Carlos da Silva Dias</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>Joaquim Miguel Rangel da Cunha Costa</t>
+          <t>João Carlos da Silva Dias</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Horticultura Ornamental</t>
+          <t>Horticultura Herbácea</t>
         </is>
       </c>
       <c r="G516" t="n">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H516" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="517">
@@ -37938,7 +37974,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>Ana Paula Ferreira Ramos</t>
+          <t>Joaquim Miguel Rangel da Cunha Costa</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -37956,7 +37992,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ERUR</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -37969,24 +38005,24 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Maria Teresa Gomes Afonso do Paço/João Rui Rolim Fernandes Machado Lopes</t>
+          <t>Ana Paula Ferreira Ramos</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>João Rui Rolim Fernandes Machado Lopes</t>
+          <t>Ana Paula Ferreira Ramos</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Instalações Agrícolas e Condicionamento Ambiental</t>
+          <t>Horticultura Ornamental</t>
         </is>
       </c>
       <c r="G518" t="n">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="H518" t="n">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="519">
@@ -38010,7 +38046,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>Maria Teresa Gomes Afonso do Paço</t>
+          <t>João Rui Rolim Fernandes Machado Lopes</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -38022,13 +38058,13 @@
         <v>1415</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>ERUR</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -38041,21 +38077,21 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
+          <t>Maria Teresa Gomes Afonso do Paço/João Rui Rolim Fernandes Machado Lopes</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
+          <t>Maria Teresa Gomes Afonso do Paço</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>Introdução ao Python</t>
+          <t>Instalações Agrícolas e Condicionamento Ambiental</t>
         </is>
       </c>
       <c r="G520" t="n">
-        <v>2370</v>
+        <v>1415</v>
       </c>
       <c r="H520" t="n">
         <v>1</v>
@@ -38064,12 +38100,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -38077,24 +38113,24 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>Ana Paula Ferreira Ramos</t>
+          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>Ana Paula Soares Marques de Carvalho</t>
+          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>Introdução aos Espaços Arborizados Urbanos</t>
+          <t>Introdução ao Python</t>
         </is>
       </c>
       <c r="G521" t="n">
-        <v>1418</v>
+        <v>2370</v>
       </c>
       <c r="H521" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -38118,7 +38154,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>Maria Teresa Gomes Afonso do Paço</t>
+          <t>Ana Paula Soares Marques de Carvalho</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -38154,7 +38190,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>Ana Paula Ferreira Ramos</t>
+          <t>Maria Teresa Gomes Afonso do Paço</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -38166,18 +38202,18 @@
         <v>1418</v>
       </c>
       <c r="H523" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -38185,24 +38221,24 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Marta Guerreiro Duarte Mesquita de Oliveira</t>
+          <t>Ana Paula Ferreira Ramos</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>Marta Guerreiro Duarte Mesquita de Oliveira</t>
+          <t>Ana Paula Ferreira Ramos</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>Investigação Operacional Aplicada</t>
+          <t>Introdução aos Espaços Arborizados Urbanos</t>
         </is>
       </c>
       <c r="G524" t="n">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="H524" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="525">
@@ -38226,7 +38262,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>Isabel Maria de Jesus Martins</t>
+          <t>Marta Guerreiro Duarte Mesquita de Oliveira</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
@@ -38262,7 +38298,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>Susana Miguel Barreiro</t>
+          <t>Isabel Maria de Jesus Martins</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -38274,13 +38310,13 @@
         <v>1422</v>
       </c>
       <c r="H526" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -38293,24 +38329,24 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Isabel Nunes Januário </t>
+          <t>Marta Guerreiro Duarte Mesquita de Oliveira</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>Maria Isabel Nunes Januário</t>
+          <t>Susana Miguel Barreiro</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Lacticínios</t>
+          <t>Investigação Operacional Aplicada</t>
         </is>
       </c>
       <c r="G527" t="n">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H527" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="528">
@@ -38334,7 +38370,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>Maria Filipa Vinagre Marques da Silva Oliveira</t>
+          <t>Maria Isabel Nunes Januário</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -38346,13 +38382,13 @@
         <v>1423</v>
       </c>
       <c r="H528" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ECON</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -38365,24 +38401,24 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>José Manuel Osório de Barros de Lima e Santos</t>
+          <t xml:space="preserve">Maria Isabel Nunes Januário </t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>José Manuel Osório de Barros de Lima e Santos</t>
+          <t>Maria Filipa Vinagre Marques da Silva Oliveira</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Lacticínios</t>
         </is>
       </c>
       <c r="G529" t="n">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="530">
@@ -38411,11 +38447,11 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>Marketing da Gastronomia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="G530" t="n">
-        <v>1812</v>
+        <v>1425</v>
       </c>
       <c r="H530" t="n">
         <v>2</v>
@@ -38424,7 +38460,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>EALIM</t>
+          <t>ECON</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -38437,24 +38473,24 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>Cristina Maria Moniz Simões Oliveira</t>
+          <t>José Manuel Osório de Barros de Lima e Santos</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>Cristina Maria Moniz Simões de Oliveira</t>
+          <t>José Manuel Osório de Barros de Lima e Santos</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>Matérias Primas</t>
+          <t>Marketing da Gastronomia</t>
         </is>
       </c>
       <c r="G531" t="n">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="H531" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -38478,7 +38514,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>Isabel Maria Nunes de Sousa</t>
+          <t>Cristina Maria Moniz Simões de Oliveira</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
@@ -38490,7 +38526,7 @@
         <v>1809</v>
       </c>
       <c r="H532" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="533">
@@ -38514,7 +38550,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>Maria Madalena dos Santos Lordelo Redford</t>
+          <t>Isabel Maria Nunes de Sousa</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
@@ -38526,7 +38562,7 @@
         <v>1809</v>
       </c>
       <c r="H533" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="534">
@@ -38550,7 +38586,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>Margarida Gomes Moldão Martins</t>
+          <t>Maria Madalena dos Santos Lordelo Redford</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -38562,7 +38598,7 @@
         <v>1809</v>
       </c>
       <c r="H534" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="535">
@@ -38586,7 +38622,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
+          <t>Margarida Gomes Moldão Martins</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
@@ -38598,13 +38634,13 @@
         <v>1809</v>
       </c>
       <c r="H535" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ERUR</t>
+          <t>EALIM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -38617,35 +38653,35 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Maria do Rosário da Conceição Cameira</t>
+          <t>Cristina Maria Moniz Simões Oliveira</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>Maria do Rosário da Conceição Cameira</t>
+          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>Mecânica de Fluidos</t>
+          <t>Matérias Primas</t>
         </is>
       </c>
       <c r="G536" t="n">
-        <v>1428</v>
+        <v>1809</v>
       </c>
       <c r="H536" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>BIO</t>
+          <t>ERUR</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -38653,30 +38689,30 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>Manuel José de Carvalho Pimenta Malfeito Ferreira</t>
+          <t>Maria do Rosário da Conceição Cameira</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>Manuel José de Carvalho Pimenta Malfeito Ferreira</t>
+          <t>Maria do Rosário da Conceição Cameira</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>Microbiologia e Segurança dos Alimentos</t>
+          <t>Mecânica de Fluidos</t>
         </is>
       </c>
       <c r="G537" t="n">
-        <v>1798</v>
+        <v>1428</v>
       </c>
       <c r="H537" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>BIO</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -38689,24 +38725,24 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Maria Margarida Branco de Brito Tavares Tomé</t>
+          <t>Manuel José de Carvalho Pimenta Malfeito Ferreira</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>Maria Margarida Branco de Brito Tavares Tomé</t>
+          <t>Manuel José de Carvalho Pimenta Malfeito Ferreira</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Modelação dos Recursos Florestais</t>
+          <t>Microbiologia e Segurança dos Alimentos</t>
         </is>
       </c>
       <c r="G538" t="n">
-        <v>1719</v>
+        <v>1798</v>
       </c>
       <c r="H538" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="539">
@@ -38730,7 +38766,7 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>Susana Miguel Barreiro</t>
+          <t>Maria Margarida Branco de Brito Tavares Tomé</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -38742,7 +38778,7 @@
         <v>1719</v>
       </c>
       <c r="H539" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="540">
@@ -38766,7 +38802,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>Miguel Nuno do Sacramento Monteiro Bugalho</t>
+          <t>Susana Miguel Barreiro</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -38784,12 +38820,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t xml:space="preserve">EAMB </t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -38797,24 +38833,24 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>António José Guerreiro de Brito/José Maria Horta e Costa Silva Santos</t>
+          <t>Maria Margarida Branco de Brito Tavares Tomé</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>José Maria Horta e Costa Silva Santos</t>
+          <t>Miguel Nuno do Sacramento Monteiro Bugalho</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>Modelação e Planeamento Ambiental</t>
+          <t>Modelação dos Recursos Florestais</t>
         </is>
       </c>
       <c r="G541" t="n">
-        <v>1442</v>
+        <v>1719</v>
       </c>
       <c r="H541" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="542">
@@ -38838,7 +38874,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>Pedro Segurado</t>
+          <t>José Maria Horta e Costa Silva Santos</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -38850,7 +38886,7 @@
         <v>1442</v>
       </c>
       <c r="H542" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="543">
@@ -38874,7 +38910,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>António José Guerreiro de Brito</t>
+          <t>Pedro Segurado</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
@@ -38886,13 +38922,13 @@
         <v>1442</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t xml:space="preserve">EAMB </t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -38905,30 +38941,30 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Isabel Nunes Januário </t>
+          <t>António José Guerreiro de Brito/José Maria Horta e Costa Silva Santos</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>Maria Isabel Nunes Januário</t>
+          <t>António José Guerreiro de Brito</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>Noções de Fisiologia, Nutrição e Dietética</t>
+          <t>Modelação e Planeamento Ambiental</t>
         </is>
       </c>
       <c r="G544" t="n">
-        <v>1811</v>
+        <v>1442</v>
       </c>
       <c r="H544" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>EZOO</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -38941,24 +38977,24 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>André Martinho de Almeida</t>
+          <t xml:space="preserve">Maria Isabel Nunes Januário </t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>André Martinho de Almeida</t>
+          <t>Maria Isabel Nunes Januário</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>Nutrição Animal Avançada</t>
+          <t>Noções de Fisiologia, Nutrição e Dietética</t>
         </is>
       </c>
       <c r="G545" t="n">
-        <v>1723</v>
+        <v>1811</v>
       </c>
       <c r="H545" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="546">
@@ -38982,7 +39018,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>Maria Madalena dos Santos Lordelo Redford</t>
+          <t>André Martinho de Almeida</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
@@ -38994,13 +39030,13 @@
         <v>1723</v>
       </c>
       <c r="H546" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>EZOO</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -39013,24 +39049,24 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
+          <t>André Martinho de Almeida</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
+          <t>Maria Madalena dos Santos Lordelo Redford</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>Nutrição e Toxicologia Alimentar</t>
+          <t>Nutrição Animal Avançada</t>
         </is>
       </c>
       <c r="G547" t="n">
-        <v>1448</v>
+        <v>1723</v>
       </c>
       <c r="H547" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="548">
@@ -39054,7 +39090,7 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>Maria José Antão Pais de Almeida Cerejeira</t>
+          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -39066,7 +39102,7 @@
         <v>1448</v>
       </c>
       <c r="H548" t="n">
-        <v>22.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="549">
@@ -39090,7 +39126,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t>Maria José Antão Pais de Almeida Cerejeira</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
@@ -39121,30 +39157,30 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>Manuel José de Carvalho Pimenta Malfeito Ferreira</t>
+          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>Manuel José de Carvalho Pimenta Malfeito Ferreira</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>O Vinho na Gastronomia</t>
+          <t>Nutrição e Toxicologia Alimentar</t>
         </is>
       </c>
       <c r="G550" t="n">
-        <v>1810</v>
+        <v>1448</v>
       </c>
       <c r="H550" t="n">
-        <v>28</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -39157,24 +39193,24 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>Cristina Maria Moniz Simões Oliveira</t>
+          <t>Manuel José de Carvalho Pimenta Malfeito Ferreira</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>Cristina Maria Moniz Simões de Oliveira</t>
+          <t>Manuel José de Carvalho Pimenta Malfeito Ferreira</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>Olivicultura e Tecnologia do Azeite</t>
+          <t>O Vinho na Gastronomia</t>
         </is>
       </c>
       <c r="G551" t="n">
-        <v>2247</v>
+        <v>1810</v>
       </c>
       <c r="H551" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="552">
@@ -39198,7 +39234,7 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t>Cristina Maria Moniz Simões de Oliveira</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -39210,7 +39246,7 @@
         <v>2247</v>
       </c>
       <c r="H552" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="553">
@@ -39234,7 +39270,7 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>Maria João Prudêncio Rafael Canadas</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -39270,7 +39306,7 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>Mariana da Silva Gomes Mota</t>
+          <t>Maria João Prudêncio Rafael Canadas</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -39282,7 +39318,7 @@
         <v>2247</v>
       </c>
       <c r="H554" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555">
@@ -39306,7 +39342,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>Pedro Manuel Vieira Talhinhas</t>
+          <t>Mariana da Silva Gomes Mota</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -39318,7 +39354,7 @@
         <v>2247</v>
       </c>
       <c r="H555" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="556">
@@ -39342,7 +39378,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>Rita do Amaral Fragoso</t>
+          <t>Pedro Manuel Vieira Talhinhas</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
@@ -39378,7 +39414,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>Maria do Rosário da Conceição Cameira</t>
+          <t>Rita do Amaral Fragoso</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -39414,7 +39450,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>Maria Teresa Gomes Afonso do Paço</t>
+          <t>Maria do Rosário da Conceição Cameira</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -39432,12 +39468,12 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C559" t="n">
@@ -39445,24 +39481,24 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pedro Miguel Ramos Arsénio </t>
+          <t>Cristina Maria Moniz Simões Oliveira</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>Pedro Miguel Ramos Arsénio</t>
+          <t>Maria Teresa Gomes Afonso do Paço</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>Ordenamento do Território - Níveis Regional e Nacional</t>
+          <t>Olivicultura e Tecnologia do Azeite</t>
         </is>
       </c>
       <c r="G559" t="n">
-        <v>1621</v>
+        <v>2247</v>
       </c>
       <c r="H559" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="560">
@@ -39491,14 +39527,14 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Ordenamento do Território - Nível Municipal</t>
+          <t>Ordenamento do Território - Níveis Regional e Nacional</t>
         </is>
       </c>
       <c r="G560" t="n">
-        <v>1616</v>
+        <v>1621</v>
       </c>
       <c r="H560" t="n">
-        <v>4</v>
+        <v>98</v>
       </c>
     </row>
     <row r="561">
@@ -39522,7 +39558,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>Selma Beatriz de Almeida Nunes da Pena Baldaia</t>
+          <t>Pedro Miguel Ramos Arsénio</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -39534,18 +39570,18 @@
         <v>1616</v>
       </c>
       <c r="H561" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -39553,24 +39589,24 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Maria Helena Mendes da Costa Ferreira Correia de Oliveira</t>
+          <t xml:space="preserve">Pedro Miguel Ramos Arsénio </t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>Maria Helena Mendes da Costa Ferreira Correia de Oliveira</t>
+          <t>Selma Beatriz de Almeida Nunes da Pena Baldaia</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>Patologia Vegetal</t>
+          <t>Ordenamento do Território - Nível Municipal</t>
         </is>
       </c>
       <c r="G562" t="n">
-        <v>1469</v>
+        <v>1616</v>
       </c>
       <c r="H562" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="563">
@@ -39594,7 +39630,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>Ana Cristina Garcia Pereira Cabral</t>
+          <t>Maria Helena Mendes da Costa Ferreira Correia de Oliveira</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -39606,7 +39642,7 @@
         <v>1469</v>
       </c>
       <c r="H563" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="564">
@@ -39630,7 +39666,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>Pedro Manuel Vieira Talhinhas</t>
+          <t>Ana Cristina Garcia Pereira Cabral</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -39642,7 +39678,7 @@
         <v>1469</v>
       </c>
       <c r="H564" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="565">
@@ -39661,35 +39697,35 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t>Maria Helena Mendes da Costa Ferreira Correia de Oliveira</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t>Pedro Manuel Vieira Talhinhas</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>Pesticidas e Ambiente</t>
+          <t>Patologia Vegetal</t>
         </is>
       </c>
       <c r="G565" t="n">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C566" t="n">
@@ -39697,35 +39733,35 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>Maria da Conceição Brálio de Brito Caldeira</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>Maria da Conceição Brálio de Brito Caldeira</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>Processos dos Ecossistemas Florestais</t>
+          <t>Pesticidas e Ambiente</t>
         </is>
       </c>
       <c r="G566" t="n">
-        <v>1855</v>
+        <v>1470</v>
       </c>
       <c r="H566" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -39733,24 +39769,24 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Margarida Gomes Moldão Martins</t>
+          <t>Maria da Conceição Brálio de Brito Caldeira</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>Margarida Gomes Moldão Martins</t>
+          <t>Maria da Conceição Brálio de Brito Caldeira</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>Processos Emergentes e Gestão Ambiental</t>
+          <t>Processos dos Ecossistemas Florestais</t>
         </is>
       </c>
       <c r="G567" t="n">
-        <v>1477</v>
+        <v>1855</v>
       </c>
       <c r="H567" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="568">
@@ -39774,7 +39810,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>Rita do Amaral Fragoso</t>
+          <t>Margarida Gomes Moldão Martins</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -39786,7 +39822,7 @@
         <v>1477</v>
       </c>
       <c r="H568" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="569">
@@ -39810,7 +39846,7 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>Vitor Manuel Delgado Alves</t>
+          <t>Rita do Amaral Fragoso</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -39822,7 +39858,7 @@
         <v>1477</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="570">
@@ -39846,7 +39882,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>Maria Filipa Vinagre Marques da Silva Oliveira</t>
+          <t>Vitor Manuel Delgado Alves</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -39858,13 +39894,13 @@
         <v>1477</v>
       </c>
       <c r="H570" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t xml:space="preserve">EAMB </t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -39877,24 +39913,24 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>António José Guerreiro de Brito</t>
+          <t>Margarida Gomes Moldão Martins</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>Ana Luísa Brito dos Santos de Sousa Soares</t>
+          <t>Maria Filipa Vinagre Marques da Silva Oliveira</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>Projecto</t>
+          <t>Processos Emergentes e Gestão Ambiental</t>
         </is>
       </c>
       <c r="G571" t="n">
-        <v>1634</v>
+        <v>1477</v>
       </c>
       <c r="H571" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="572">
@@ -39918,7 +39954,7 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>Cláudia Saramago de Carvalho Marques-dos-Santos</t>
+          <t>Ana Luísa Brito dos Santos de Sousa Soares</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -39930,18 +39966,18 @@
         <v>1634</v>
       </c>
       <c r="H572" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t xml:space="preserve">EAMB </t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C573" t="n">
@@ -39949,24 +39985,24 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>Luís Paulo Almeida Faria Ribeiro</t>
+          <t>António José Guerreiro de Brito</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>Luis Paulo Almeida Faria Ribeiro</t>
+          <t>Cláudia Saramago de Carvalho Marques-dos-Santos</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>Projecto de Execução de Arquitectura Paisagista</t>
+          <t>Projecto</t>
         </is>
       </c>
       <c r="G573" t="n">
-        <v>1611</v>
+        <v>1634</v>
       </c>
       <c r="H573" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="574">
@@ -39985,24 +40021,24 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>Maria Cristina da Fonseca Ataide Castel-Branco Alarcão Júdice</t>
+          <t>Luís Paulo Almeida Faria Ribeiro</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>Maria Cristina d Fonseca Ataíde Castel-Branco Alarcão Júdice</t>
+          <t>Luis Paulo Almeida Faria Ribeiro</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>Projecto e Crítica do Espaço Público</t>
+          <t>Projecto de Execução de Arquitectura Paisagista</t>
         </is>
       </c>
       <c r="G574" t="n">
-        <v>1622</v>
+        <v>1611</v>
       </c>
       <c r="H574" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="575">
@@ -40026,7 +40062,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>Ana Luísa Brito dos Santos de Sousa Soares</t>
+          <t>Maria Cristina d Fonseca Ataíde Castel-Branco Alarcão Júdice</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -40038,18 +40074,18 @@
         <v>1622</v>
       </c>
       <c r="H575" t="n">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C576" t="n">
@@ -40057,24 +40093,24 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>Isabel Maria Nunes de Sousa</t>
+          <t>Maria Cristina da Fonseca Ataide Castel-Branco Alarcão Júdice</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>Isabel Maria Nunes de Sousa</t>
+          <t>Ana Luísa Brito dos Santos de Sousa Soares</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>Projecto Industrial</t>
+          <t>Projecto e Crítica do Espaço Público</t>
         </is>
       </c>
       <c r="G576" t="n">
-        <v>1487</v>
+        <v>1622</v>
       </c>
       <c r="H576" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="577">
@@ -40098,7 +40134,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>Vitor Manuel Delgado Alves</t>
+          <t>Isabel Maria Nunes de Sousa</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
@@ -40110,7 +40146,7 @@
         <v>1487</v>
       </c>
       <c r="H577" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="578">
@@ -40134,7 +40170,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>Margarida Gomes Moldão Martins</t>
+          <t>Vitor Manuel Delgado Alves</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -40170,7 +40206,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>Maria Filipa Vinagre Marques da Silva Oliveira</t>
+          <t>Margarida Gomes Moldão Martins</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
@@ -40182,7 +40218,7 @@
         <v>1487</v>
       </c>
       <c r="H579" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="580">
@@ -40206,7 +40242,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
+          <t>Maria Filipa Vinagre Marques da Silva Oliveira</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
@@ -40224,12 +40260,12 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C581" t="n">
@@ -40237,24 +40273,24 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Teresa Marques Ferreira/Rui Paulo Nóbrega Figueira </t>
+          <t>Isabel Maria Nunes de Sousa</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>Rui Paulo Nóbrega Figueira</t>
+          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>Projeto Hackathon de Ciência de Dados</t>
+          <t>Projecto Industrial</t>
         </is>
       </c>
       <c r="G581" t="n">
-        <v>2375</v>
+        <v>1487</v>
       </c>
       <c r="H581" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="582">
@@ -40278,7 +40314,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira</t>
+          <t>Rui Paulo Nóbrega Figueira</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
@@ -40290,18 +40326,18 @@
         <v>2375</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C583" t="n">
@@ -40309,24 +40345,24 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t xml:space="preserve">Maria Teresa Marques Ferreira/Rui Paulo Nóbrega Figueira </t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t>Maria Teresa Marques Ferreira</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>Protecção da Vinha</t>
+          <t>Projeto Hackathon de Ciência de Dados</t>
         </is>
       </c>
       <c r="G583" t="n">
-        <v>1569</v>
+        <v>2375</v>
       </c>
       <c r="H583" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -40350,7 +40386,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>Maria Helena Mendes da Costa Ferreira Correia de Oliveira</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
@@ -40362,7 +40398,7 @@
         <v>1569</v>
       </c>
       <c r="H584" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="585">
@@ -40386,7 +40422,7 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>Maria Cecília Nunes Farinha Rego</t>
+          <t>Maria Helena Mendes da Costa Ferreira Correia de Oliveira</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
@@ -40398,7 +40434,7 @@
         <v>1569</v>
       </c>
       <c r="H585" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="586">
@@ -40422,7 +40458,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>Ana Maria da Silva Monteiro</t>
+          <t>Maria Cecília Nunes Farinha Rego</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
@@ -40453,24 +40489,24 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Ana Paula Ferreira Ramos</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>Ana Paula Ferreira Ramos</t>
+          <t>Ana Maria da Silva Monteiro</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>Protecção de Culturas</t>
+          <t>Protecção da Vinha</t>
         </is>
       </c>
       <c r="G587" t="n">
-        <v>1489</v>
+        <v>1569</v>
       </c>
       <c r="H587" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="588">
@@ -40494,7 +40530,7 @@
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t>Ana Paula Ferreira Ramos</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
@@ -40506,7 +40542,7 @@
         <v>1489</v>
       </c>
       <c r="H588" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="589">
@@ -40530,7 +40566,7 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
@@ -40566,7 +40602,7 @@
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>José Carlos Franco Santos Silva</t>
+          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
@@ -40602,7 +40638,7 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>Maria Helena Mendes da Costa Ferreira Correia de Oliveira</t>
+          <t>José Carlos Franco Santos Silva</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
@@ -40614,7 +40650,7 @@
         <v>1489</v>
       </c>
       <c r="H591" t="n">
-        <v>42.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="592">
@@ -40638,7 +40674,7 @@
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>Pedro Manuel Vieira Talhinhas</t>
+          <t>Maria Helena Mendes da Costa Ferreira Correia de Oliveira</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
@@ -40650,13 +40686,13 @@
         <v>1489</v>
       </c>
       <c r="H592" t="n">
-        <v>7.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>EAMB</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -40669,24 +40705,24 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>David Paulo Fangueiro</t>
+          <t>Ana Paula Ferreira Ramos</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>David Paulo Fangueiro</t>
+          <t>Pedro Manuel Vieira Talhinhas</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>Química Ambiental</t>
+          <t>Protecção de Culturas</t>
         </is>
       </c>
       <c r="G593" t="n">
-        <v>1749</v>
+        <v>1489</v>
       </c>
       <c r="H593" t="n">
-        <v>35</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="594">
@@ -40710,7 +40746,7 @@
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>Miguel Pedro de Freitas Barbosa Mourato</t>
+          <t>David Paulo Fangueiro</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
@@ -40728,12 +40764,12 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EAMB</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C595" t="n">
@@ -40741,21 +40777,21 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Maria Cristina da Fonseca Ataide Castel-Branco Alarcão Júdice</t>
+          <t>David Paulo Fangueiro</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>Maria Cristina d Fonseca Ataíde Castel-Branco Alarcão Júdice</t>
+          <t>Miguel Pedro de Freitas Barbosa Mourato</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>Recuperação e Gestão da Paisagem Cultural</t>
+          <t>Química Ambiental</t>
         </is>
       </c>
       <c r="G595" t="n">
-        <v>1617</v>
+        <v>1749</v>
       </c>
       <c r="H595" t="n">
         <v>35</v>
@@ -40764,12 +40800,12 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ERUR</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -40777,24 +40813,24 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>Maria do Rosário da Conceição Cameira</t>
+          <t>Maria Cristina da Fonseca Ataide Castel-Branco Alarcão Júdice</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>Maria do Rosário da Conceição Cameira</t>
+          <t>Maria Cristina d Fonseca Ataíde Castel-Branco Alarcão Júdice</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>Rega e Drenagem</t>
+          <t>Recuperação e Gestão da Paisagem Cultural</t>
         </is>
       </c>
       <c r="G596" t="n">
-        <v>1496</v>
+        <v>1617</v>
       </c>
       <c r="H596" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="597">
@@ -40818,7 +40854,7 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>Maria Teresa Gomes Afonso do Paço</t>
+          <t>Maria do Rosário da Conceição Cameira</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
@@ -40830,7 +40866,7 @@
         <v>1496</v>
       </c>
       <c r="H597" t="n">
-        <v>17.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="598">
@@ -40854,7 +40890,7 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>João Rui Rolim Fernandes Machado Lopes</t>
+          <t>Maria Teresa Gomes Afonso do Paço</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
@@ -40866,7 +40902,7 @@
         <v>1496</v>
       </c>
       <c r="H598" t="n">
-        <v>5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="599">
@@ -40890,7 +40926,7 @@
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>Isabel Maria Cerqueira Lopes Alves</t>
+          <t>João Rui Rolim Fernandes Machado Lopes</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
@@ -40902,13 +40938,13 @@
         <v>1496</v>
       </c>
       <c r="H599" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>ERUR</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -40921,30 +40957,30 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
+          <t>Maria do Rosário da Conceição Cameira</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
+          <t>Isabel Maria Cerqueira Lopes Alves</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>Reologia e Textura de Alimentos</t>
+          <t>Rega e Drenagem</t>
         </is>
       </c>
       <c r="G600" t="n">
-        <v>1799</v>
+        <v>1496</v>
       </c>
       <c r="H600" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -40957,24 +40993,24 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>Segurança e Política Alimentar</t>
+          <t>Reologia e Textura de Alimentos</t>
         </is>
       </c>
       <c r="G601" t="n">
-        <v>1563</v>
+        <v>1799</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="602">
@@ -40998,7 +41034,7 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>Luís Filipe Sanches Goulão</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
@@ -41010,18 +41046,18 @@
         <v>1563</v>
       </c>
       <c r="H602" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C603" t="n">
@@ -41029,35 +41065,35 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Cabral Matos Silva Aires Pereira </t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>Maria Cabral Matos Silva Aires Pereira</t>
+          <t>Luís Filipe Sanches Goulão</t>
         </is>
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>Seminário de Mestrado (em Arquitectura Paisagista)</t>
+          <t>Segurança e Política Alimentar</t>
         </is>
       </c>
       <c r="G603" t="n">
-        <v>2173</v>
+        <v>1563</v>
       </c>
       <c r="H603" t="n">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C604" t="n">
@@ -41065,24 +41101,24 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t xml:space="preserve">Maria Cabral Matos Silva Aires Pereira </t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>António Maria Marques Mexia</t>
+          <t>Maria Cabral Matos Silva Aires Pereira</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>Seminário de Mestrado (em Engenharia Agronómica)</t>
+          <t>Seminário de Mestrado (em Arquitectura Paisagista)</t>
         </is>
       </c>
       <c r="G604" t="n">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="H604" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="605">
@@ -41106,7 +41142,7 @@
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>Paula Cristina Santana Paredes</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
@@ -41118,7 +41154,7 @@
         <v>2178</v>
       </c>
       <c r="H605" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="606">
@@ -41142,7 +41178,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
+          <t>Paula Cristina Santana Paredes</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
@@ -41160,7 +41196,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -41173,24 +41209,24 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Margarida Gomes Moldão Martins</t>
+          <t>António Maria Marques Mexia</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>Margarida Gomes Moldão Martins</t>
+          <t>Elisabete Tavares Lacerda de Figueiredo Oliveira</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>Seminário de Mestrado (em Engenharia Alimentar)</t>
+          <t>Seminário de Mestrado (em Engenharia Agronómica)</t>
         </is>
       </c>
       <c r="G607" t="n">
-        <v>2185</v>
+        <v>2178</v>
       </c>
       <c r="H607" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="608">
@@ -41214,7 +41250,7 @@
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>Vitor Manuel Delgado Alves</t>
+          <t>Margarida Gomes Moldão Martins</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
@@ -41226,13 +41262,13 @@
         <v>2185</v>
       </c>
       <c r="H608" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>EAMB</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -41245,24 +41281,24 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Teresa Marques Ferreira </t>
+          <t>Margarida Gomes Moldão Martins</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira</t>
+          <t>Vitor Manuel Delgado Alves</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>Seminário de Mestrado (em Engenharia do Ambiente)</t>
+          <t>Seminário de Mestrado (em Engenharia Alimentar)</t>
         </is>
       </c>
       <c r="G609" t="n">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="H609" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="610">
@@ -41286,7 +41322,7 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>José Maria Horta e Costa Silva Santos</t>
+          <t>Maria Teresa Marques Ferreira</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
@@ -41298,18 +41334,18 @@
         <v>2182</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>EAMB</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -41317,35 +41353,35 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>Maria da Conceição Brálio de Brito Caldeira</t>
+          <t xml:space="preserve">Maria Teresa Marques Ferreira </t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>Maria da Conceição Brálio de Brito Caldeira</t>
+          <t>José Maria Horta e Costa Silva Santos</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>Seminário de Mestrado (em Engenharia Florestal e dos Recursos Naturais)</t>
+          <t>Seminário de Mestrado (em Engenharia do Ambiente)</t>
         </is>
       </c>
       <c r="G611" t="n">
-        <v>2193</v>
+        <v>2182</v>
       </c>
       <c r="H611" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C612" t="n">
@@ -41353,35 +41389,35 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Carlos Manuel Antunes Lopes</t>
+          <t>Maria da Conceição Brálio de Brito Caldeira</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>Carlos Manuel Antunes Lopes</t>
+          <t>Maria da Conceição Brálio de Brito Caldeira</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>Seminário de Mestrado (em Viticultura e Enologia)</t>
+          <t>Seminário de Mestrado (em Engenharia Florestal e dos Recursos Naturais)</t>
         </is>
       </c>
       <c r="G612" t="n">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="H612" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -41389,24 +41425,24 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
+          <t>Carlos Manuel Antunes Lopes</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>Pedro Segurado</t>
+          <t>Carlos Manuel Antunes Lopes</t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>Seminário em Ciência de Dados</t>
+          <t>Seminário de Mestrado (em Viticultura e Enologia)</t>
         </is>
       </c>
       <c r="G613" t="n">
-        <v>2374</v>
+        <v>2191</v>
       </c>
       <c r="H613" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="614">
@@ -41425,24 +41461,24 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira/José Maria Horta e Costa Silva Santos</t>
+          <t>Manuel Lameiras de Figueiredo Campagnolo</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>José Maria Horta e Costa Silva Santos</t>
+          <t>Pedro Segurado</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>Seminário I</t>
+          <t>Seminário em Ciência de Dados</t>
         </is>
       </c>
       <c r="G614" t="n">
-        <v>1499</v>
+        <v>2374</v>
       </c>
       <c r="H614" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="615">
@@ -41466,7 +41502,7 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira</t>
+          <t>José Maria Horta e Costa Silva Santos</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
@@ -41478,7 +41514,7 @@
         <v>1499</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="616">
@@ -41497,24 +41533,24 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira/Pedro Segurado</t>
+          <t>Maria Teresa Marques Ferreira/José Maria Horta e Costa Silva Santos</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>Pedro Segurado</t>
+          <t>Maria Teresa Marques Ferreira</t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>Seminário II</t>
+          <t>Seminário I</t>
         </is>
       </c>
       <c r="G616" t="n">
-        <v>2189</v>
+        <v>1499</v>
       </c>
       <c r="H616" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -41538,7 +41574,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>Maria Teresa Marques Ferreira</t>
+          <t>Pedro Segurado</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
@@ -41550,18 +41586,18 @@
         <v>2189</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>EALIM</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C618" t="n">
@@ -41569,30 +41605,30 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>Catarina Paula Guerra Geoffroy Prista</t>
+          <t>Maria Teresa Marques Ferreira/Pedro Segurado</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>Catarina Paula Guerra Geoffroy Prista</t>
+          <t>Maria Teresa Marques Ferreira</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>Seminários I</t>
+          <t>Seminário II</t>
         </is>
       </c>
       <c r="G618" t="n">
-        <v>1804</v>
+        <v>2189</v>
       </c>
       <c r="H618" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>EALIM</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -41605,35 +41641,35 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
+          <t>Catarina Paula Guerra Geoffroy Prista</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
+          <t>Catarina Paula Guerra Geoffroy Prista</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>Sistemas da Qualidade</t>
+          <t>Seminários I</t>
         </is>
       </c>
       <c r="G619" t="n">
-        <v>1502</v>
+        <v>1804</v>
       </c>
       <c r="H619" t="n">
-        <v>97.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C620" t="n">
@@ -41641,24 +41677,24 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manuel Lameiras de Figueiredo Campagnolo/Rui Paulo Nóbrega Figueira </t>
+          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>Rui Paulo Nóbrega Figueira</t>
+          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>Sistemas de Informação Geográfica</t>
+          <t>Sistemas da Qualidade</t>
         </is>
       </c>
       <c r="G620" t="n">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H620" t="n">
-        <v>70</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="621">
@@ -41682,7 +41718,7 @@
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>Gonçalo Filipe Fernandes Duarte</t>
+          <t>Rui Paulo Nóbrega Figueira</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
@@ -41700,12 +41736,12 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>ECON</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C622" t="n">
@@ -41713,21 +41749,21 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Maria João Prudêncio Rafael Canadas</t>
+          <t xml:space="preserve">Manuel Lameiras de Figueiredo Campagnolo/Rui Paulo Nóbrega Figueira </t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>Ana Maria Contente de Vinha Novais</t>
+          <t>Gonçalo Filipe Fernandes Duarte</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>Sociedade e Sistemas Rurais</t>
+          <t>Sistemas de Informação Geográfica</t>
         </is>
       </c>
       <c r="G622" t="n">
-        <v>1765</v>
+        <v>1503</v>
       </c>
       <c r="H622" t="n">
         <v>70</v>
@@ -41736,12 +41772,12 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>ECON</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C623" t="n">
@@ -41749,24 +41785,24 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Paula Maria da Luz Figueiredo de Alvarenga</t>
+          <t>Maria João Prudêncio Rafael Canadas</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>Paula Maria da Luz Figueiredo de Alvarenga</t>
+          <t>Ana Maria Contente de Vinha Novais</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>Solos e Conservação de Recursos</t>
+          <t>Sociedade e Sistemas Rurais</t>
         </is>
       </c>
       <c r="G623" t="n">
-        <v>1509</v>
+        <v>1765</v>
       </c>
       <c r="H623" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="624">
@@ -41790,7 +41826,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>Nuno Renato da Silva Cortez</t>
+          <t>Paula Maria da Luz Figueiredo de Alvarenga</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
@@ -41808,12 +41844,12 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C625" t="n">
@@ -41821,24 +41857,24 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>Maria Suzana Leitão Ferreira Dias Vicente</t>
+          <t>Paula Maria da Luz Figueiredo de Alvarenga</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>Maria Filipa Vinagre Marques da Silva Oliveira</t>
+          <t>Nuno Renato da Silva Cortez</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>Técnicas de Análise Sensorial</t>
+          <t>Solos e Conservação de Recursos</t>
         </is>
       </c>
       <c r="G625" t="n">
-        <v>1800</v>
+        <v>1509</v>
       </c>
       <c r="H625" t="n">
-        <v>10.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="626">
@@ -41862,7 +41898,7 @@
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>Maria Suzana Leitão Ferreira Dias Vicente</t>
+          <t>Maria Filipa Vinagre Marques da Silva Oliveira</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
@@ -41880,7 +41916,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>EAMB</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -41893,24 +41929,24 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>Miguel Pedro de Freitas Barbosa Mourato</t>
+          <t>Maria Suzana Leitão Ferreira Dias Vicente</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>Miguel Pedro de Freitas Barbosa Mourato</t>
+          <t>Maria Suzana Leitão Ferreira Dias Vicente</t>
         </is>
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>Técnicas Laboratoriais em Química e Bioquímica</t>
+          <t>Técnicas de Análise Sensorial</t>
         </is>
       </c>
       <c r="G627" t="n">
-        <v>1514</v>
+        <v>1800</v>
       </c>
       <c r="H627" t="n">
-        <v>45</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="628">
@@ -41934,7 +41970,7 @@
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>Maria Luíza Louro Martins</t>
+          <t>Miguel Pedro de Freitas Barbosa Mourato</t>
         </is>
       </c>
       <c r="F628" t="inlineStr">
@@ -41946,7 +41982,7 @@
         <v>1514</v>
       </c>
       <c r="H628" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="629">
@@ -41970,7 +42006,7 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>Helena Manuela Gil Azinheira</t>
+          <t>Maria Luíza Louro Martins</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
@@ -41982,7 +42018,7 @@
         <v>1514</v>
       </c>
       <c r="H629" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="630">
@@ -42006,7 +42042,7 @@
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>Joana Patrícia Araújo Ferreira</t>
+          <t>Helena Manuela Gil Azinheira</t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
@@ -42018,13 +42054,13 @@
         <v>1514</v>
       </c>
       <c r="H630" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>EALIM</t>
+          <t>EAMB</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -42037,30 +42073,30 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>Catarina Paula Guerra Geoffroy Prista</t>
+          <t>Miguel Pedro de Freitas Barbosa Mourato</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>Catarina Paula Guerra Geoffroy Prista</t>
+          <t>Joana Patrícia Araújo Ferreira</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>Tecnologia de Alimentos Fermentados</t>
+          <t>Técnicas Laboratoriais em Química e Bioquímica</t>
         </is>
       </c>
       <c r="G631" t="n">
-        <v>1716</v>
+        <v>1514</v>
       </c>
       <c r="H631" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>EALIM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -42073,30 +42109,30 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Isabel Nunes Januário </t>
+          <t>Catarina Paula Guerra Geoffroy Prista</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>Maria Isabel Nunes Januário</t>
+          <t>Catarina Paula Guerra Geoffroy Prista</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>Tecnologia do Açúcar e Produtos Alternativos</t>
+          <t>Tecnologia de Alimentos Fermentados</t>
         </is>
       </c>
       <c r="G632" t="n">
-        <v>1521</v>
+        <v>1716</v>
       </c>
       <c r="H632" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>EZOO</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -42109,30 +42145,30 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>Maria Madalena dos Santos Lordelo Redford</t>
+          <t xml:space="preserve">Maria Isabel Nunes Januário </t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>Maria Madalena dos Santos Lordelo Redford</t>
+          <t>Maria Isabel Nunes Januário</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>Tecnologia dos Alimentos para Animais</t>
+          <t>Tecnologia do Açúcar e Produtos Alternativos</t>
         </is>
       </c>
       <c r="G633" t="n">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H633" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>EZOO</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -42145,24 +42181,24 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>Isabel Maria Nunes de Sousa</t>
+          <t>Maria Madalena dos Santos Lordelo Redford</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>Isabel Maria Nunes de Sousa</t>
+          <t>Maria Madalena dos Santos Lordelo Redford</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>Tecnologia dos Cereais</t>
+          <t>Tecnologia dos Alimentos para Animais</t>
         </is>
       </c>
       <c r="G634" t="n">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="635">
@@ -42186,7 +42222,7 @@
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
+          <t>Isabel Maria Nunes de Sousa</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
@@ -42198,7 +42234,7 @@
         <v>1523</v>
       </c>
       <c r="H635" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -42222,7 +42258,7 @@
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>Catarina Paula Guerra Geoffroy Prista</t>
+          <t>Anabela Cristina da Silva Naret Moreira Raymundo</t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
@@ -42234,7 +42270,7 @@
         <v>1523</v>
       </c>
       <c r="H636" t="n">
-        <v>13.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="637">
@@ -42258,7 +42294,7 @@
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>Maria Cristiana Henriques Nunes</t>
+          <t>Catarina Paula Guerra Geoffroy Prista</t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
@@ -42270,7 +42306,7 @@
         <v>1523</v>
       </c>
       <c r="H637" t="n">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="638">
@@ -42294,7 +42330,7 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>Maria Otília de Almeida Carvalho</t>
+          <t>Maria Cristiana Henriques Nunes</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
@@ -42306,7 +42342,7 @@
         <v>1523</v>
       </c>
       <c r="H638" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="639">
@@ -42330,7 +42366,7 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>Maria Manuela Antunes Gomes da Silva</t>
+          <t>Maria Otília de Almeida Carvalho</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
@@ -42342,7 +42378,7 @@
         <v>1523</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="640">
@@ -42361,30 +42397,30 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>Maria Suzana Leitão Ferreira Dias Vicente</t>
+          <t>Isabel Maria Nunes de Sousa</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>Maria Suzana Leitão Ferreira Dias Vicente</t>
+          <t>Maria Manuela Antunes Gomes da Silva</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>Tecnologia dos Óleos e Gorduras</t>
+          <t>Tecnologia dos Cereais</t>
         </is>
       </c>
       <c r="G640" t="n">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H640" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>EZOO</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -42397,21 +42433,21 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
+          <t>Maria Suzana Leitão Ferreira Dias Vicente</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
+          <t>Maria Suzana Leitão Ferreira Dias Vicente</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>Tecnologia dos Produtos Animais</t>
+          <t>Tecnologia dos Óleos e Gorduras</t>
         </is>
       </c>
       <c r="G641" t="n">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H641" t="n">
         <v>70</v>
@@ -42420,7 +42456,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>EZOO</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -42433,24 +42469,24 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>Margarida Gomes Moldão Martins</t>
+          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>Margarida Gomes Moldão Martins</t>
+          <t>Teresa de Jesus da Silva Matos Nolasco Crespo</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>Tecnologia dos Produtos Hortofrutícolas</t>
+          <t>Tecnologia dos Produtos Animais</t>
         </is>
       </c>
       <c r="G642" t="n">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H642" t="n">
-        <v>57.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="643">
@@ -42474,7 +42510,7 @@
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>Maria Manuela Marques Matias Ferreira Pinto</t>
+          <t>Margarida Gomes Moldão Martins</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
@@ -42486,7 +42522,7 @@
         <v>1526</v>
       </c>
       <c r="H643" t="n">
-        <v>12.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="644">
@@ -42505,30 +42541,30 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>Maria Helena Guimarães de Almeida</t>
+          <t>Margarida Gomes Moldão Martins</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>Maria Helena Guimarães de Almeida</t>
+          <t>Maria Manuela Marques Matias Ferreira Pinto</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>Tecnologia dos Produtos Tropicais</t>
+          <t>Tecnologia dos Produtos Hortofrutícolas</t>
         </is>
       </c>
       <c r="G644" t="n">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H644" t="n">
-        <v>70</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>EZOO</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -42541,24 +42577,24 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>André Martinho de Almeida</t>
+          <t>Maria Helena Guimarães de Almeida</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>Rui José Branquinho de Bessa</t>
+          <t>Maria Helena Guimarães de Almeida</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>Tecnologias de Produção Animal - Leite</t>
+          <t>Tecnologia dos Produtos Tropicais</t>
         </is>
       </c>
       <c r="G645" t="n">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="H645" t="n">
-        <v>32.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="646">
@@ -42582,7 +42618,7 @@
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>André Martinho de Almeida</t>
+          <t>Rui José Branquinho de Bessa</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
@@ -42594,13 +42630,13 @@
         <v>1529</v>
       </c>
       <c r="H646" t="n">
-        <v>5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>EAMB</t>
+          <t>EZOO</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -42613,24 +42649,24 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Rita do Amaral Fragoso</t>
+          <t>André Martinho de Almeida</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>Rita do Amaral Fragoso</t>
+          <t>André Martinho de Almeida</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>Tecnologias de Tratamento de Água/Águas Residuais</t>
+          <t>Tecnologias de Produção Animal - Leite</t>
         </is>
       </c>
       <c r="G647" t="n">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="H647" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="648">
@@ -42654,7 +42690,7 @@
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>António José Guerreiro de Brito</t>
+          <t>Rita do Amaral Fragoso</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -42666,7 +42702,7 @@
         <v>1531</v>
       </c>
       <c r="H648" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="649">
@@ -42685,35 +42721,35 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>Ana Cristina Ferreira da Cunha Queda</t>
+          <t>Rita do Amaral Fragoso</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>Ana Cristina Ferreira da Cunha Queda</t>
+          <t>António José Guerreiro de Brito</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>Tecnologias de Tratamento de Resíduos</t>
+          <t>Tecnologias de Tratamento de Água/Águas Residuais</t>
         </is>
       </c>
       <c r="G649" t="n">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H649" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EAMB</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -42721,21 +42757,21 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>Maria Teresa Amaro Alfaiate</t>
+          <t>Ana Cristina Ferreira da Cunha Queda</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>Maria Teresa Amaro Alfaiate</t>
+          <t>Ana Cristina Ferreira da Cunha Queda</t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>Tópicos Avançados em Teoria da Arquitectura Paisagista</t>
+          <t>Tecnologias de Tratamento de Resíduos</t>
         </is>
       </c>
       <c r="G650" t="n">
-        <v>1625</v>
+        <v>1532</v>
       </c>
       <c r="H650" t="n">
         <v>70</v>
@@ -42744,12 +42780,12 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -42757,24 +42793,24 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>Henrique Manuel Filipe Ribeiro</t>
+          <t>Maria Teresa Amaro Alfaiate</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>Henrique Manuel Filipe Ribeiro</t>
+          <t>Maria Teresa Amaro Alfaiate</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>Valorização Agronómica e Florestal de Resíduos e Bioprodutos</t>
+          <t>Tópicos Avançados em Teoria da Arquitectura Paisagista</t>
         </is>
       </c>
       <c r="G651" t="n">
-        <v>1538</v>
+        <v>1625</v>
       </c>
       <c r="H651" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="652">
@@ -42798,7 +42834,7 @@
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>David Paulo Fangueiro</t>
+          <t>Henrique Manuel Filipe Ribeiro</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
@@ -42810,7 +42846,7 @@
         <v>1538</v>
       </c>
       <c r="H652" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="653">
@@ -42834,7 +42870,7 @@
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>Paula Maria da Luz Figueiredo de Alvarenga</t>
+          <t>David Paulo Fangueiro</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
@@ -42846,18 +42882,18 @@
         <v>1538</v>
       </c>
       <c r="H653" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EAGR</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>DRAT</t>
+          <t>DCEB</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -42865,35 +42901,35 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Ana Luísa Brito dos Santos de Sousa Soares</t>
+          <t>Henrique Manuel Filipe Ribeiro</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>Ana Luísa Brito dos Santos de Sousa Soares</t>
+          <t>Paula Maria da Luz Figueiredo de Alvarenga</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>Vegetação no Espaço Urbano</t>
+          <t>Valorização Agronómica e Florestal de Resíduos e Bioprodutos</t>
         </is>
       </c>
       <c r="G654" t="n">
-        <v>1777</v>
+        <v>1538</v>
       </c>
       <c r="H654" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>EALM</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>DCEB</t>
+          <t>DRAT</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -42901,24 +42937,24 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
+          <t>Ana Luísa Brito dos Santos de Sousa Soares</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
+          <t>Ana Luísa Brito dos Santos de Sousa Soares</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>Vinhos Licorosos</t>
+          <t>Vegetação no Espaço Urbano</t>
         </is>
       </c>
       <c r="G655" t="n">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="H655" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="656">
@@ -42947,14 +42983,14 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>Vinificação</t>
+          <t>Vinhos Licorosos</t>
         </is>
       </c>
       <c r="G656" t="n">
-        <v>1568</v>
+        <v>1778</v>
       </c>
       <c r="H656" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="657">
@@ -42978,7 +43014,7 @@
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>Sofia Cristina Gomes Catarino</t>
+          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
@@ -42990,13 +43026,13 @@
         <v>1568</v>
       </c>
       <c r="H657" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>EAGR</t>
+          <t>EALM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -43009,24 +43045,24 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Carlos Manuel Antunes Lopes</t>
+          <t>Jorge Manuel Rodrigues Ricardo da Silva</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>Carlos Manuel Antunes Lopes</t>
+          <t>Sofia Cristina Gomes Catarino</t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>Viticultura</t>
+          <t>Vinificação</t>
         </is>
       </c>
       <c r="G658" t="n">
-        <v>1540</v>
+        <v>1568</v>
       </c>
       <c r="H658" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="659">
@@ -43050,7 +43086,7 @@
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Joaquim Miguel Rangel da Cunha Costa</t>
+          <t>Carlos Manuel Antunes Lopes</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -43062,7 +43098,7 @@
         <v>1540</v>
       </c>
       <c r="H659" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="660">
@@ -43086,7 +43122,7 @@
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Elsa Maria Félix Gonçalves</t>
+          <t>Joaquim Miguel Rangel da Cunha Costa</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
@@ -43098,7 +43134,7 @@
         <v>1540</v>
       </c>
       <c r="H660" t="n">
-        <v>7.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="661">
@@ -43122,7 +43158,7 @@
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>Henrique Manuel Filipe Ribeiro</t>
+          <t>Elsa Maria Félix Gonçalves</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
@@ -43158,19 +43194,19 @@
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>Carlos Manuel Antunes Lopes</t>
+          <t>Henrique Manuel Filipe Ribeiro</t>
         </is>
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>Viticultura Avançada</t>
+          <t>Viticultura</t>
         </is>
       </c>
       <c r="G662" t="n">
-        <v>1573</v>
+        <v>1540</v>
       </c>
       <c r="H662" t="n">
-        <v>60</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="663">
@@ -43194,7 +43230,7 @@
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>Joaquim Miguel Rangel da Cunha Costa</t>
+          <t>Carlos Manuel Antunes Lopes</t>
         </is>
       </c>
       <c r="F663" t="inlineStr">
@@ -43206,7 +43242,7 @@
         <v>1573</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="664">
@@ -43230,7 +43266,7 @@
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>Luísa Cristina dos Mártires Ferreira de Carvalho</t>
+          <t>Joaquim Miguel Rangel da Cunha Costa</t>
         </is>
       </c>
       <c r="F664" t="inlineStr">
@@ -43242,7 +43278,7 @@
         <v>1573</v>
       </c>
       <c r="H664" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="665">
@@ -43266,19 +43302,19 @@
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>Carlos Manuel Antunes Lopes</t>
+          <t>Luísa Cristina dos Mártires Ferreira de Carvalho</t>
         </is>
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>Viticultura de Montanha, Semi-Árida e Tropical</t>
+          <t>Viticultura Avançada</t>
         </is>
       </c>
       <c r="G665" t="n">
-        <v>2101</v>
+        <v>1573</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="666">
@@ -43302,7 +43338,7 @@
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>Luís Filipe Sanches Goulão</t>
+          <t>Carlos Manuel Antunes Lopes</t>
         </is>
       </c>
       <c r="F666" t="inlineStr">
@@ -43314,11 +43350,47 @@
         <v>2101</v>
       </c>
       <c r="H666" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>EAGR</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>DCEB</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v/>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>Carlos Manuel Antunes Lopes</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>Luís Filipe Sanches Goulão</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>Viticultura de Montanha, Semi-Árida e Tropical</t>
+        </is>
+      </c>
+      <c r="G667" t="n">
+        <v>2101</v>
+      </c>
+      <c r="H667" t="n">
         <v>16.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H666"/>
+  <autoFilter ref="A1:H667"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
